--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -700,19 +700,31 @@
     <t>Zombo</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
     <t>Name: uganda-tb-success</t>
   </si>
   <si>
-    <t>Description: Ugandan TB success rate </t>
+    <t>Description: TB success rate</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Annual Health Sector Performance Reports 2010- 2014, Ministry of Health</t>
+  </si>
+  <si>
+    <t>Source-link: http://library.health.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -727,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1067,77 +1082,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1176,1563 +1201,6215 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D3" t="n">
-        <v>78.4</v>
+        <v>71.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v>49.1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D6" t="n">
-        <v>84.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D8" t="n">
-        <v>96.8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>90.2</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D10" t="n">
-        <v>93.2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.8</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.9</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v>80.6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D18" t="n">
-        <v>87.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>82.6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>87.5</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D22" t="n">
-        <v>82.1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D23" t="n">
-        <v>69.2</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v>83.9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>93.8</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>91.7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v>70.6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v>81.8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D31" t="n">
-        <v>93.8</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>75.9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>75</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>86.7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v>90</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>65.8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>75</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D38" t="n">
-        <v>85.5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D39" t="n">
-        <v>87.2</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D40" t="n">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D40" t="n">
-        <v>88.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D42" t="n">
-        <v>90.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D43" t="n">
-        <v>91.3</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>81.6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>84.1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D47" t="n">
-        <v>89.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>94.4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>95.9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D50" t="n">
-        <v>59.1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D51" t="n">
-        <v>78.3</v>
+        <v>79.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v>85.7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>68.8</v>
+        <v>71.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D54" t="n">
-        <v>84.6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D55" t="n">
-        <v>83.1</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>56.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>76.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D58" t="n">
-        <v>74.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D59" t="n">
-        <v>44.8</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>94.1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>61.9</v>
+        <v>80.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>85.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>93.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D66" t="n">
-        <v>72.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C67" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D67" t="n">
-        <v>86.7</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D71" t="n">
-        <v>93.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D74" t="n">
-        <v>69.2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D75" t="n">
-        <v>70</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>67.9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>88.6</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D78" t="n">
-        <v>72.1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D79" t="n">
-        <v>82.4</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>94.7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>80</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D82" t="n">
-        <v>65.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D83" t="n">
-        <v>69.6</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v>83.1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>66.7</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C86" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v>70.4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D87" t="n">
-        <v>76.9</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D88" t="n">
-        <v>78.1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>88</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>84.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v>90</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>63.6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>61.8</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D94" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D95" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>90</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D98" t="n">
-        <v>79.3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D99" t="n">
-        <v>91</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v>47.7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>96.3</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D102" t="n">
-        <v>76.4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D103" t="n">
-        <v>88.9</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="D103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>90.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>92.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D106" t="n">
-        <v>90.6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v>89.6</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v>46.9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>100</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C110" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D110" t="n">
-        <v>39.8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C111" t="n">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D111" t="n">
-        <v>68.3</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C112" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>66.7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D114" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D115" t="n">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D116" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D117" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D118" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D119" t="n">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D120" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D121" t="n">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D122" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D123" t="n">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D124" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D125" t="n">
+        <v>75.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D126" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D127" t="n">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D128" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D129" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D130" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D131" t="n">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D132" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D133" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D134" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D135" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D136" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D137" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D138" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D139" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D140" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D141" t="n">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D142" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D143" t="n">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D144" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D145" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D146" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D147" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D148" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D149" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D150" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D151" t="n">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D152" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D153" t="n">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D154" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D155" t="n">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D156" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D157" t="n">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D158" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D159" t="n">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D160" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D162" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D163" t="n">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D165" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D166" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D168" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D169" t="n">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D170" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D171" t="n">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D173" t="n">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D174" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D175" t="n">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D176" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D177" t="n">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D178" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D180" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D181" t="n">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D182" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D183" t="n">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D184" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D185" t="n">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D186" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D187" t="n">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D188" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D189" t="n">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D190" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D191" t="n">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D192" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D193" t="n">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D194" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D195" t="n">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D196" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D197" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D198" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D199" t="n">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D200" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D201" t="n">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D202" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D203" t="n">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D204" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D205" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D206" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D207" t="n">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D208" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D209" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D210" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D212" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D213" t="n">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D214" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D215" t="n">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D216" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D217" t="n">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D218" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D220" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D221" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D222" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D223" t="n">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D224" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D225" t="n">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D226" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D227" t="n">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D228" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D229" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D230" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D231" t="n">
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D232" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D233" t="n">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D234" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D235"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D236" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D237" t="n">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D238" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D239" t="n">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D240" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D241" t="n">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D242" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D243" t="n">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D244" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D245" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D246" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D247" t="n">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D248" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D249" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D250" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D251" t="n">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D252" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D253" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D254" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D255"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D256" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D257" t="n">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D258" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D259" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D260" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D261" t="n">
+        <v>72.6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D262" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D263" t="n">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D264" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D265" t="n">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D266" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D267" t="n">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D268" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D269" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D270" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D271"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D272" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D273" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D274" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D275" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D276" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D277" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D278" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D279"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D280" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D281" t="n">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D282" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D283" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D284" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D285" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D286" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D287" t="n">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D288" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D289" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D290" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D291"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D292" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D293" t="n">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D294" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D295" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D296" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D297" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D298" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D299" t="n">
+        <v>71.9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D300" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D301" t="n">
+        <v>67.9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D302" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D303" t="n">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D304" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D305" t="n">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D306" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D307" t="n">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D308" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D309" t="n">
+        <v>72.1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D310" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D311" t="n">
+        <v>74.9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D312" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D313" t="n">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D314" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D315"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D316" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D317" t="n">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D318" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D319" t="n">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D320" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D321" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D322" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D323" t="n">
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D324" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D325" t="n">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D326" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D327" t="n">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D328" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D329" t="n">
+        <v>69.6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D330" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D331" t="n">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D332" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D333" t="n">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D334" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D335" t="n">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D336" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D337" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D338" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D339" t="n">
+        <v>69.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D340" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D341" t="n">
+        <v>70.4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D342" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D343" t="n">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D344" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D345" t="n">
+        <v>76.9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D346" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D347" t="n">
+        <v>70.9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D348" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D349" t="n">
+        <v>78.1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D350" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D351" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D352" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D353" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D354" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D355"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D356" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D357" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D358" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D359" t="n">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D360" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D361" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D362" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D363"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D364" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D365" t="n">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D366" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D367" t="n">
+        <v>72.4</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D368" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D369" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D370" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D371" t="n">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D372" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D373" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D374" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D375"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D376" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D377" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D378" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D379" t="n">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D380" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D381" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D382" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D383"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D384" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D385" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D386" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D387"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D388" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D389" t="n">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D390" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D391" t="n">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D392" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D393" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D394" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D395" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D396" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D397" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D398" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D399" t="n">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D400" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D401" t="n">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D402" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D403" t="n">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D404" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D405" t="n">
+        <v>76.4</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D406" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D407"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D408" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D409" t="n">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D410" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D411" t="n">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D412" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D413" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D414" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D415" t="n">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D416" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D417" t="n">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D418" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D419"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D420" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D421" t="n">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D422" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D423" t="n">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D424" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D425" t="n">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D426" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D427" t="n">
+        <v>80.6</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D428" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D429" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D430" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D431" t="n">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D432" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D433" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D434" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D435" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D436" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D437" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D438" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D439" t="n">
+        <v>69.9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D440" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D441" t="n">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D442" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D443" t="n">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D444" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D445" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B446" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C446" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D446" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D447"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D448" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D449" t="n">
         <v>77.1</v>
       </c>
     </row>
@@ -2760,6 +7437,15 @@
       <c r="C1" t="s">
         <v>228</v>
       </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2769,6 +7455,15 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2780,6 +7475,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
         <v>78.4</v>
       </c>
     </row>
@@ -2791,6 +7495,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
         <v>49.1</v>
       </c>
     </row>
@@ -2801,7 +7512,12 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
         <v>84</v>
       </c>
     </row>
@@ -2813,6 +7529,15 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" t="n">
+        <v>84</v>
+      </c>
+      <c r="F6" t="n">
         <v>84.8</v>
       </c>
     </row>
@@ -2824,6 +7549,15 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
+        <v>81</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>66</v>
+      </c>
+      <c r="F7" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -2835,6 +7569,15 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>93</v>
+      </c>
+      <c r="F8" t="n">
         <v>96.8</v>
       </c>
     </row>
@@ -2846,6 +7589,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>89.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92</v>
+      </c>
+      <c r="F9" t="n">
         <v>90.2</v>
       </c>
     </row>
@@ -2857,6 +7609,15 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>96</v>
+      </c>
+      <c r="D10" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94</v>
+      </c>
+      <c r="F10" t="n">
         <v>93.2</v>
       </c>
     </row>
@@ -2868,6 +7629,15 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>79</v>
+      </c>
+      <c r="D11" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
         <v>46.8</v>
       </c>
     </row>
@@ -2881,6 +7651,15 @@
       <c r="C12" t="n">
         <v>95</v>
       </c>
+      <c r="D12" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>97</v>
+      </c>
+      <c r="F12" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2890,6 +7669,15 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v>52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13" t="n">
+        <v>77</v>
+      </c>
+      <c r="F13" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2901,6 +7689,15 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v>71</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84</v>
+      </c>
+      <c r="F14" t="n">
         <v>71.9</v>
       </c>
     </row>
@@ -2912,6 +7709,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
+        <v>78</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>93</v>
+      </c>
+      <c r="F15" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2923,6 +7727,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>66</v>
+      </c>
+      <c r="F16" t="n">
         <v>80.6</v>
       </c>
     </row>
@@ -2934,6 +7745,15 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>93</v>
+      </c>
+      <c r="F17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2945,6 +7765,13 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v>60</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -2958,6 +7785,15 @@
       <c r="C19" t="n">
         <v>100</v>
       </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2967,6 +7803,15 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
+        <v>85</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
         <v>82.6</v>
       </c>
     </row>
@@ -2978,6 +7823,15 @@
         <v>43</v>
       </c>
       <c r="C21" t="n">
+        <v>81</v>
+      </c>
+      <c r="D21" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77</v>
+      </c>
+      <c r="F21" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -2989,6 +7843,15 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
+        <v>99</v>
+      </c>
+      <c r="D22" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>95</v>
+      </c>
+      <c r="F22" t="n">
         <v>82.1</v>
       </c>
     </row>
@@ -3000,6 +7863,15 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
+        <v>78</v>
+      </c>
+      <c r="D23" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>73</v>
+      </c>
+      <c r="F23" t="n">
         <v>69.2</v>
       </c>
     </row>
@@ -3011,6 +7883,15 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
+        <v>67</v>
+      </c>
+      <c r="D24" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>78</v>
+      </c>
+      <c r="F24" t="n">
         <v>83.9</v>
       </c>
     </row>
@@ -3022,6 +7903,15 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
+        <v>75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>82</v>
+      </c>
+      <c r="E25" t="n">
+        <v>78</v>
+      </c>
+      <c r="F25" t="n">
         <v>93.8</v>
       </c>
     </row>
@@ -3033,6 +7923,15 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
+        <v>69</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75</v>
+      </c>
+      <c r="F26" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -3044,6 +7943,13 @@
         <v>55</v>
       </c>
       <c r="C27" t="n">
+        <v>67</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>48</v>
+      </c>
+      <c r="F27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3055,6 +7961,15 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
+        <v>66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" t="n">
         <v>70.6</v>
       </c>
     </row>
@@ -3066,6 +7981,15 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
+        <v>94</v>
+      </c>
+      <c r="D29" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>95</v>
+      </c>
+      <c r="F29" t="n">
         <v>97.8</v>
       </c>
     </row>
@@ -3077,6 +8001,15 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
+        <v>69</v>
+      </c>
+      <c r="D30" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>76</v>
+      </c>
+      <c r="F30" t="n">
         <v>81.8</v>
       </c>
     </row>
@@ -3088,6 +8021,15 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
+        <v>77</v>
+      </c>
+      <c r="D31" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82</v>
+      </c>
+      <c r="F31" t="n">
         <v>93.8</v>
       </c>
     </row>
@@ -3099,6 +8041,15 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
+        <v>87</v>
+      </c>
+      <c r="D32" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>82</v>
+      </c>
+      <c r="F32" t="n">
         <v>75.9</v>
       </c>
     </row>
@@ -3110,6 +8061,15 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
+        <v>62</v>
+      </c>
+      <c r="D33" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>63</v>
+      </c>
+      <c r="F33" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3121,6 +8081,15 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
+        <v>65</v>
+      </c>
+      <c r="D34" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>89</v>
+      </c>
+      <c r="F34" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -3132,6 +8101,15 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
+        <v>78</v>
+      </c>
+      <c r="D35" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>88</v>
+      </c>
+      <c r="F35" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3143,6 +8121,15 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
+        <v>75</v>
+      </c>
+      <c r="D36" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>59</v>
+      </c>
+      <c r="F36" t="n">
         <v>65.8</v>
       </c>
     </row>
@@ -3154,6 +8141,15 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
+        <v>82</v>
+      </c>
+      <c r="D37" t="n">
+        <v>83.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3165,6 +8161,15 @@
         <v>77</v>
       </c>
       <c r="C38" t="n">
+        <v>70</v>
+      </c>
+      <c r="D38" t="n">
+        <v>73</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79</v>
+      </c>
+      <c r="F38" t="n">
         <v>85.5</v>
       </c>
     </row>
@@ -3176,6 +8181,15 @@
         <v>79</v>
       </c>
       <c r="C39" t="n">
+        <v>75</v>
+      </c>
+      <c r="D39" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>78</v>
+      </c>
+      <c r="F39" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -3187,6 +8201,15 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
+        <v>120</v>
+      </c>
+      <c r="D40" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>66</v>
+      </c>
+      <c r="F40" t="n">
         <v>88.9</v>
       </c>
     </row>
@@ -3198,6 +8221,15 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
+        <v>92</v>
+      </c>
+      <c r="D41" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>99</v>
+      </c>
+      <c r="F41" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3209,6 +8241,15 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
+        <v>80</v>
+      </c>
+      <c r="D42" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>76</v>
+      </c>
+      <c r="F42" t="n">
         <v>90.5</v>
       </c>
     </row>
@@ -3220,6 +8261,13 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
+        <v>60</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="n">
+        <v>73</v>
+      </c>
+      <c r="F43" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -3231,6 +8279,13 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
+        <v>67</v>
+      </c>
+      <c r="D44" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
         <v>81.6</v>
       </c>
     </row>
@@ -3242,6 +8297,15 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
+        <v>66</v>
+      </c>
+      <c r="D45" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>83</v>
+      </c>
+      <c r="F45" t="n">
         <v>84.1</v>
       </c>
     </row>
@@ -3253,6 +8317,13 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
+        <v>87</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="n">
+        <v>93</v>
+      </c>
+      <c r="F46" t="n">
         <v>96.4</v>
       </c>
     </row>
@@ -3264,6 +8335,15 @@
         <v>95</v>
       </c>
       <c r="C47" t="n">
+        <v>70</v>
+      </c>
+      <c r="D47" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>79</v>
+      </c>
+      <c r="F47" t="n">
         <v>89.4</v>
       </c>
     </row>
@@ -3275,6 +8355,15 @@
         <v>97</v>
       </c>
       <c r="C48" t="n">
+        <v>78</v>
+      </c>
+      <c r="D48" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93</v>
+      </c>
+      <c r="F48" t="n">
         <v>94.4</v>
       </c>
     </row>
@@ -3286,6 +8375,15 @@
         <v>99</v>
       </c>
       <c r="C49" t="n">
+        <v>89</v>
+      </c>
+      <c r="D49" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>93</v>
+      </c>
+      <c r="F49" t="n">
         <v>95.9</v>
       </c>
     </row>
@@ -3297,6 +8395,15 @@
         <v>101</v>
       </c>
       <c r="C50" t="n">
+        <v>96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>87</v>
+      </c>
+      <c r="F50" t="n">
         <v>59.1</v>
       </c>
     </row>
@@ -3308,6 +8415,15 @@
         <v>103</v>
       </c>
       <c r="C51" t="n">
+        <v>74</v>
+      </c>
+      <c r="D51" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>63</v>
+      </c>
+      <c r="F51" t="n">
         <v>78.3</v>
       </c>
     </row>
@@ -3319,6 +8435,15 @@
         <v>105</v>
       </c>
       <c r="C52" t="n">
+        <v>86</v>
+      </c>
+      <c r="D52" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>86</v>
+      </c>
+      <c r="F52" t="n">
         <v>85.7</v>
       </c>
     </row>
@@ -3330,6 +8455,15 @@
         <v>107</v>
       </c>
       <c r="C53" t="n">
+        <v>86</v>
+      </c>
+      <c r="D53" t="n">
+        <v>82.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>88</v>
+      </c>
+      <c r="F53" t="n">
         <v>68.8</v>
       </c>
     </row>
@@ -3341,6 +8475,13 @@
         <v>109</v>
       </c>
       <c r="C54" t="n">
+        <v>93</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
+        <v>73</v>
+      </c>
+      <c r="F54" t="n">
         <v>84.6</v>
       </c>
     </row>
@@ -3352,6 +8493,15 @@
         <v>111</v>
       </c>
       <c r="C55" t="n">
+        <v>64</v>
+      </c>
+      <c r="D55" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>74</v>
+      </c>
+      <c r="F55" t="n">
         <v>83.1</v>
       </c>
     </row>
@@ -3363,6 +8513,13 @@
         <v>113</v>
       </c>
       <c r="C56" t="n">
+        <v>71</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>79</v>
+      </c>
+      <c r="F56" t="n">
         <v>56.7</v>
       </c>
     </row>
@@ -3374,6 +8531,15 @@
         <v>115</v>
       </c>
       <c r="C57" t="n">
+        <v>75</v>
+      </c>
+      <c r="D57" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>78</v>
+      </c>
+      <c r="F57" t="n">
         <v>76.5</v>
       </c>
     </row>
@@ -3385,6 +8551,15 @@
         <v>117</v>
       </c>
       <c r="C58" t="n">
+        <v>108</v>
+      </c>
+      <c r="D58" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" t="n">
         <v>74.5</v>
       </c>
     </row>
@@ -3396,6 +8571,15 @@
         <v>119</v>
       </c>
       <c r="C59" t="n">
+        <v>73</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>77</v>
+      </c>
+      <c r="F59" t="n">
         <v>44.8</v>
       </c>
     </row>
@@ -3407,6 +8591,13 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
+        <v>96</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="n">
+        <v>88</v>
+      </c>
+      <c r="F60" t="n">
         <v>94.1</v>
       </c>
     </row>
@@ -3418,6 +8609,15 @@
         <v>123</v>
       </c>
       <c r="C61" t="n">
+        <v>45</v>
+      </c>
+      <c r="D61" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>54</v>
+      </c>
+      <c r="F61" t="n">
         <v>61.9</v>
       </c>
     </row>
@@ -3429,6 +8629,15 @@
         <v>125</v>
       </c>
       <c r="C62" t="n">
+        <v>64</v>
+      </c>
+      <c r="D62" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>89</v>
+      </c>
+      <c r="F62" t="n">
         <v>73.3</v>
       </c>
     </row>
@@ -3440,6 +8649,15 @@
         <v>127</v>
       </c>
       <c r="C63" t="n">
+        <v>78</v>
+      </c>
+      <c r="D63" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>95</v>
+      </c>
+      <c r="F63" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3451,6 +8669,15 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
+        <v>86</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69</v>
+      </c>
+      <c r="F64" t="n">
         <v>85.7</v>
       </c>
     </row>
@@ -3462,6 +8689,13 @@
         <v>131</v>
       </c>
       <c r="C65" t="n">
+        <v>73</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>87</v>
+      </c>
+      <c r="F65" t="n">
         <v>93.5</v>
       </c>
     </row>
@@ -3473,6 +8707,15 @@
         <v>133</v>
       </c>
       <c r="C66" t="n">
+        <v>73</v>
+      </c>
+      <c r="D66" t="n">
+        <v>73</v>
+      </c>
+      <c r="E66" t="n">
+        <v>79</v>
+      </c>
+      <c r="F66" t="n">
         <v>72.6</v>
       </c>
     </row>
@@ -3484,6 +8727,15 @@
         <v>135</v>
       </c>
       <c r="C67" t="n">
+        <v>108</v>
+      </c>
+      <c r="D67" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>74</v>
+      </c>
+      <c r="F67" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -3495,6 +8747,15 @@
         <v>137</v>
       </c>
       <c r="C68" t="n">
+        <v>86</v>
+      </c>
+      <c r="D68" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>88</v>
+      </c>
+      <c r="F68" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3506,6 +8767,13 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
+        <v>65</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="n">
+        <v>77</v>
+      </c>
+      <c r="F69" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3517,6 +8785,15 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
+        <v>61</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>61</v>
+      </c>
+      <c r="F70" t="n">
         <v>65</v>
       </c>
     </row>
@@ -3528,6 +8805,13 @@
         <v>143</v>
       </c>
       <c r="C71" t="n">
+        <v>60</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>64</v>
+      </c>
+      <c r="F71" t="n">
         <v>93.9</v>
       </c>
     </row>
@@ -3539,6 +8823,15 @@
         <v>145</v>
       </c>
       <c r="C72" t="n">
+        <v>96</v>
+      </c>
+      <c r="D72" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>99</v>
+      </c>
+      <c r="F72" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3550,6 +8843,15 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
+        <v>94</v>
+      </c>
+      <c r="D73" t="n">
+        <v>94.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>99</v>
+      </c>
+      <c r="F73" t="n">
         <v>96</v>
       </c>
     </row>
@@ -3561,6 +8863,13 @@
         <v>149</v>
       </c>
       <c r="C74" t="n">
+        <v>79</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="n">
+        <v>69</v>
+      </c>
+      <c r="F74" t="n">
         <v>69.2</v>
       </c>
     </row>
@@ -3572,6 +8881,15 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
+        <v>60</v>
+      </c>
+      <c r="D75" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>53</v>
+      </c>
+      <c r="F75" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3583,6 +8901,15 @@
         <v>153</v>
       </c>
       <c r="C76" t="n">
+        <v>71</v>
+      </c>
+      <c r="D76" t="n">
+        <v>71.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>65</v>
+      </c>
+      <c r="F76" t="n">
         <v>67.9</v>
       </c>
     </row>
@@ -3594,6 +8921,15 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
+        <v>81</v>
+      </c>
+      <c r="D77" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>85</v>
+      </c>
+      <c r="F77" t="n">
         <v>88.6</v>
       </c>
     </row>
@@ -3605,6 +8941,15 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
+        <v>81</v>
+      </c>
+      <c r="D78" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>72</v>
+      </c>
+      <c r="F78" t="n">
         <v>72.1</v>
       </c>
     </row>
@@ -3616,6 +8961,15 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
+        <v>59</v>
+      </c>
+      <c r="D79" t="n">
+        <v>74.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>72</v>
+      </c>
+      <c r="F79" t="n">
         <v>82.4</v>
       </c>
     </row>
@@ -3627,6 +8981,13 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>70</v>
+      </c>
+      <c r="F80" t="n">
         <v>94.7</v>
       </c>
     </row>
@@ -3638,6 +8999,15 @@
         <v>163</v>
       </c>
       <c r="C81" t="n">
+        <v>73</v>
+      </c>
+      <c r="D81" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>72</v>
+      </c>
+      <c r="F81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3649,6 +9019,15 @@
         <v>165</v>
       </c>
       <c r="C82" t="n">
+        <v>61</v>
+      </c>
+      <c r="D82" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="E82" t="n">
+        <v>80</v>
+      </c>
+      <c r="F82" t="n">
         <v>65.2</v>
       </c>
     </row>
@@ -3660,6 +9039,15 @@
         <v>167</v>
       </c>
       <c r="C83" t="n">
+        <v>72</v>
+      </c>
+      <c r="D83" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>78</v>
+      </c>
+      <c r="F83" t="n">
         <v>69.6</v>
       </c>
     </row>
@@ -3671,6 +9059,15 @@
         <v>169</v>
       </c>
       <c r="C84" t="n">
+        <v>69</v>
+      </c>
+      <c r="D84" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>71</v>
+      </c>
+      <c r="F84" t="n">
         <v>83.1</v>
       </c>
     </row>
@@ -3682,6 +9079,15 @@
         <v>171</v>
       </c>
       <c r="C85" t="n">
+        <v>75</v>
+      </c>
+      <c r="D85" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>66</v>
+      </c>
+      <c r="F85" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -3693,6 +9099,15 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
+        <v>67</v>
+      </c>
+      <c r="D86" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>64</v>
+      </c>
+      <c r="F86" t="n">
         <v>70.4</v>
       </c>
     </row>
@@ -3704,6 +9119,15 @@
         <v>175</v>
       </c>
       <c r="C87" t="n">
+        <v>81</v>
+      </c>
+      <c r="D87" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>88</v>
+      </c>
+      <c r="F87" t="n">
         <v>76.9</v>
       </c>
     </row>
@@ -3715,6 +9139,15 @@
         <v>177</v>
       </c>
       <c r="C88" t="n">
+        <v>62</v>
+      </c>
+      <c r="D88" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>79</v>
+      </c>
+      <c r="F88" t="n">
         <v>78.1</v>
       </c>
     </row>
@@ -3726,6 +9159,15 @@
         <v>179</v>
       </c>
       <c r="C89" t="n">
+        <v>84</v>
+      </c>
+      <c r="D89" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>85</v>
+      </c>
+      <c r="F89" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3737,6 +9179,13 @@
         <v>181</v>
       </c>
       <c r="C90" t="n">
+        <v>71</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>86</v>
+      </c>
+      <c r="F90" t="n">
         <v>84.8</v>
       </c>
     </row>
@@ -3748,6 +9197,15 @@
         <v>183</v>
       </c>
       <c r="C91" t="n">
+        <v>74</v>
+      </c>
+      <c r="D91" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>88</v>
+      </c>
+      <c r="F91" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3759,6 +9217,13 @@
         <v>185</v>
       </c>
       <c r="C92" t="n">
+        <v>61</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="n">
+        <v>65</v>
+      </c>
+      <c r="F92" t="n">
         <v>63.6</v>
       </c>
     </row>
@@ -3770,6 +9235,15 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
+        <v>77</v>
+      </c>
+      <c r="D93" t="n">
+        <v>72.4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>79</v>
+      </c>
+      <c r="F93" t="n">
         <v>61.8</v>
       </c>
     </row>
@@ -3781,6 +9255,15 @@
         <v>189</v>
       </c>
       <c r="C94" t="n">
+        <v>64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>65</v>
+      </c>
+      <c r="F94" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3792,6 +9275,13 @@
         <v>191</v>
       </c>
       <c r="C95" t="n">
+        <v>99</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>80</v>
+      </c>
+      <c r="F95" t="n">
         <v>75</v>
       </c>
     </row>
@@ -3805,6 +9295,15 @@
       <c r="C96" t="n">
         <v>89</v>
       </c>
+      <c r="D96" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>88</v>
+      </c>
+      <c r="F96" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -3814,6 +9313,13 @@
         <v>195</v>
       </c>
       <c r="C97" t="n">
+        <v>85</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="n">
+        <v>92</v>
+      </c>
+      <c r="F97" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3825,6 +9331,13 @@
         <v>197</v>
       </c>
       <c r="C98" t="n">
+        <v>86</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>75</v>
+      </c>
+      <c r="F98" t="n">
         <v>79.3</v>
       </c>
     </row>
@@ -3836,6 +9349,15 @@
         <v>199</v>
       </c>
       <c r="C99" t="n">
+        <v>96</v>
+      </c>
+      <c r="D99" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>94</v>
+      </c>
+      <c r="F99" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3847,6 +9369,15 @@
         <v>201</v>
       </c>
       <c r="C100" t="n">
+        <v>84</v>
+      </c>
+      <c r="D100" t="n">
+        <v>84</v>
+      </c>
+      <c r="E100" t="n">
+        <v>92</v>
+      </c>
+      <c r="F100" t="n">
         <v>47.7</v>
       </c>
     </row>
@@ -3858,6 +9389,15 @@
         <v>203</v>
       </c>
       <c r="C101" t="n">
+        <v>93</v>
+      </c>
+      <c r="D101" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>91</v>
+      </c>
+      <c r="F101" t="n">
         <v>96.3</v>
       </c>
     </row>
@@ -3869,6 +9409,15 @@
         <v>205</v>
       </c>
       <c r="C102" t="n">
+        <v>93</v>
+      </c>
+      <c r="D102" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>80</v>
+      </c>
+      <c r="F102" t="n">
         <v>76.4</v>
       </c>
     </row>
@@ -3880,6 +9429,13 @@
         <v>207</v>
       </c>
       <c r="C103" t="n">
+        <v>78</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>84</v>
+      </c>
+      <c r="F103" t="n">
         <v>88.9</v>
       </c>
     </row>
@@ -3891,6 +9447,15 @@
         <v>209</v>
       </c>
       <c r="C104" t="n">
+        <v>88</v>
+      </c>
+      <c r="D104" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>85</v>
+      </c>
+      <c r="F104" t="n">
         <v>90.2</v>
       </c>
     </row>
@@ -3902,6 +9467,15 @@
         <v>211</v>
       </c>
       <c r="C105" t="n">
+        <v>82</v>
+      </c>
+      <c r="D105" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>86</v>
+      </c>
+      <c r="F105" t="n">
         <v>92.9</v>
       </c>
     </row>
@@ -3913,6 +9487,13 @@
         <v>213</v>
       </c>
       <c r="C106" t="n">
+        <v>78</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>83</v>
+      </c>
+      <c r="F106" t="n">
         <v>90.6</v>
       </c>
     </row>
@@ -3924,6 +9505,15 @@
         <v>215</v>
       </c>
       <c r="C107" t="n">
+        <v>85</v>
+      </c>
+      <c r="D107" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>82</v>
+      </c>
+      <c r="F107" t="n">
         <v>89.6</v>
       </c>
     </row>
@@ -3935,6 +9525,15 @@
         <v>217</v>
       </c>
       <c r="C108" t="n">
+        <v>82</v>
+      </c>
+      <c r="D108" t="n">
+        <v>80.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>67</v>
+      </c>
+      <c r="F108" t="n">
         <v>46.9</v>
       </c>
     </row>
@@ -3946,6 +9545,15 @@
         <v>219</v>
       </c>
       <c r="C109" t="n">
+        <v>97</v>
+      </c>
+      <c r="D109" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>98</v>
+      </c>
+      <c r="F109" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3957,6 +9565,15 @@
         <v>221</v>
       </c>
       <c r="C110" t="n">
+        <v>60</v>
+      </c>
+      <c r="D110" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>67</v>
+      </c>
+      <c r="F110" t="n">
         <v>39.8</v>
       </c>
     </row>
@@ -3968,6 +9585,15 @@
         <v>223</v>
       </c>
       <c r="C111" t="n">
+        <v>70</v>
+      </c>
+      <c r="D111" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>73</v>
+      </c>
+      <c r="F111" t="n">
         <v>68.3</v>
       </c>
     </row>
@@ -3979,6 +9605,15 @@
         <v>225</v>
       </c>
       <c r="C112" t="n">
+        <v>122</v>
+      </c>
+      <c r="D112" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>79</v>
+      </c>
+      <c r="F112" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -3990,6 +9625,13 @@
         <v>227</v>
       </c>
       <c r="C113" t="n">
+        <v>77</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>73</v>
+      </c>
+      <c r="F113" t="n">
         <v>77.1</v>
       </c>
     </row>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -715,13 +715,13 @@
     <t>Name: uganda-tb-success</t>
   </si>
   <si>
-    <t>Description: TB success rate</t>
+    <t>Description: Tuberculosis treatment success rate</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Annual Health Sector Performance Reports 2010- 2014, Ministry of Health</t>
+    <t>Source: Annual health sector performance reports 2010â€“ 2014, Ministry of Health</t>
   </si>
   <si>
     <t>Source-link: http://library.health.go.ug/</t>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -777,52 +1113,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1193,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2011</v>
       </c>
@@ -869,7 +1207,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="n">
         <v>2012</v>
       </c>
@@ -881,7 +1221,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="n">
         <v>2013</v>
       </c>
@@ -893,7 +1235,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -903,9 +1247,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="n">
         <v>2011</v>
       </c>
@@ -915,9 +1261,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="n">
         <v>2012</v>
       </c>
@@ -927,9 +1275,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" t="n">
         <v>2013</v>
       </c>
@@ -937,9 +1287,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -949,9 +1301,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="n">
         <v>2011</v>
       </c>
@@ -961,9 +1315,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="n">
         <v>2012</v>
       </c>
@@ -973,9 +1329,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="n">
         <v>2013</v>
       </c>
@@ -985,9 +1343,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -997,9 +1357,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" t="n">
         <v>2011</v>
       </c>
@@ -1009,9 +1371,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" t="n">
         <v>2012</v>
       </c>
@@ -1021,9 +1385,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16"/>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" t="n">
         <v>2013</v>
       </c>
@@ -1033,9 +1399,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17"/>
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1045,9 +1413,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18"/>
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="n">
         <v>2011</v>
       </c>
@@ -1057,9 +1427,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19"/>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" t="n">
         <v>2012</v>
       </c>
@@ -1069,9 +1441,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="n">
         <v>2013</v>
       </c>
@@ -1081,9 +1455,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21"/>
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1093,9 +1469,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" t="n">
         <v>2011</v>
       </c>
@@ -1105,9 +1483,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23"/>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" t="n">
         <v>2012</v>
       </c>
@@ -1117,9 +1497,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24"/>
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" t="n">
         <v>2013</v>
       </c>
@@ -1129,9 +1511,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25"/>
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1141,9 +1525,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26"/>
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
       <c r="C26" t="n">
         <v>2011</v>
       </c>
@@ -1153,9 +1539,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27"/>
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" t="n">
         <v>2012</v>
       </c>
@@ -1165,9 +1553,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28"/>
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" t="n">
         <v>2013</v>
       </c>
@@ -1177,9 +1567,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29"/>
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1189,9 +1581,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30"/>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" t="n">
         <v>2011</v>
       </c>
@@ -1201,9 +1595,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31"/>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" t="n">
         <v>2012</v>
       </c>
@@ -1213,9 +1609,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" t="n">
         <v>2013</v>
       </c>
@@ -1225,9 +1623,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33"/>
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1237,9 +1637,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34"/>
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" t="n">
         <v>2011</v>
       </c>
@@ -1249,9 +1651,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35"/>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
       <c r="C35" t="n">
         <v>2012</v>
       </c>
@@ -1261,9 +1665,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36"/>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="n">
         <v>2013</v>
       </c>
@@ -1273,9 +1679,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37"/>
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1285,9 +1693,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38"/>
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
       <c r="C38" t="n">
         <v>2011</v>
       </c>
@@ -1297,9 +1707,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
       <c r="C39" t="n">
         <v>2012</v>
       </c>
@@ -1309,9 +1721,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40"/>
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="n">
         <v>2013</v>
       </c>
@@ -1321,9 +1735,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41"/>
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1333,9 +1749,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42"/>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="n">
         <v>2011</v>
       </c>
@@ -1345,9 +1763,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43"/>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="n">
         <v>2012</v>
       </c>
@@ -1357,9 +1777,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44"/>
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" t="n">
         <v>2013</v>
       </c>
@@ -1369,9 +1791,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45"/>
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1381,9 +1805,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46"/>
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
       <c r="C46" t="n">
         <v>2011</v>
       </c>
@@ -1393,9 +1819,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47"/>
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
       <c r="C47" t="n">
         <v>2012</v>
       </c>
@@ -1405,9 +1833,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48"/>
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" t="n">
         <v>2013</v>
       </c>
@@ -1417,9 +1847,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49"/>
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1429,9 +1861,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50"/>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
       <c r="C50" t="n">
         <v>2011</v>
       </c>
@@ -1441,9 +1875,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51"/>
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
       <c r="C51" t="n">
         <v>2012</v>
       </c>
@@ -1453,9 +1889,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52"/>
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" t="n">
         <v>2013</v>
       </c>
@@ -1465,9 +1903,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53"/>
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1477,9 +1917,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54"/>
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
       <c r="C54" t="n">
         <v>2011</v>
       </c>
@@ -1489,9 +1931,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55"/>
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
       <c r="C55" t="n">
         <v>2012</v>
       </c>
@@ -1501,9 +1945,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56"/>
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
       <c r="C56" t="n">
         <v>2013</v>
       </c>
@@ -1513,9 +1959,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57"/>
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1525,9 +1973,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58"/>
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
       <c r="C58" t="n">
         <v>2011</v>
       </c>
@@ -1537,9 +1987,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59"/>
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" t="n">
         <v>2012</v>
       </c>
@@ -1549,9 +2001,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60"/>
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
       <c r="C60" t="n">
         <v>2013</v>
       </c>
@@ -1561,9 +2015,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61"/>
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1573,9 +2029,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62"/>
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="n">
         <v>2011</v>
       </c>
@@ -1585,9 +2043,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63"/>
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
       <c r="C63" t="n">
         <v>2012</v>
       </c>
@@ -1597,9 +2057,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64"/>
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
       <c r="C64" t="n">
         <v>2013</v>
       </c>
@@ -1609,9 +2071,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65"/>
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1621,9 +2085,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66"/>
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
       <c r="C66" t="n">
         <v>2011</v>
       </c>
@@ -1633,9 +2099,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67"/>
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" t="n">
         <v>2012</v>
       </c>
@@ -1643,9 +2111,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68"/>
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
       <c r="C68" t="n">
         <v>2013</v>
       </c>
@@ -1655,9 +2125,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69"/>
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1667,9 +2139,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70"/>
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
       <c r="C70" t="n">
         <v>2011</v>
       </c>
@@ -1679,9 +2153,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71"/>
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
       <c r="C71" t="n">
         <v>2012</v>
       </c>
@@ -1689,9 +2165,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72"/>
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
       <c r="C72" t="n">
         <v>2013</v>
       </c>
@@ -1701,9 +2179,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73"/>
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1713,9 +2193,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74"/>
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
       <c r="C74" t="n">
         <v>2011</v>
       </c>
@@ -1725,9 +2207,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75"/>
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
       <c r="C75" t="n">
         <v>2012</v>
       </c>
@@ -1737,9 +2221,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76"/>
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
       <c r="C76" t="n">
         <v>2013</v>
       </c>
@@ -1749,9 +2235,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77"/>
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1761,9 +2249,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78"/>
+        <v>42</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
       <c r="C78" t="n">
         <v>2011</v>
       </c>
@@ -1773,9 +2263,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79"/>
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
       <c r="C79" t="n">
         <v>2012</v>
       </c>
@@ -1783,9 +2275,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80"/>
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
       <c r="C80" t="n">
         <v>2013</v>
       </c>
@@ -1795,9 +2289,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81"/>
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1807,9 +2303,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82"/>
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
       <c r="C82" t="n">
         <v>2011</v>
       </c>
@@ -1819,9 +2317,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83"/>
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" t="n">
         <v>2012</v>
       </c>
@@ -1831,9 +2331,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84"/>
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" t="n">
         <v>2013</v>
       </c>
@@ -1843,9 +2345,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85"/>
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1855,9 +2359,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86"/>
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" t="n">
         <v>2011</v>
       </c>
@@ -1867,9 +2373,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87"/>
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
       <c r="C87" t="n">
         <v>2012</v>
       </c>
@@ -1877,9 +2385,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88"/>
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" t="n">
         <v>2013</v>
       </c>
@@ -1889,9 +2399,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89"/>
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1901,9 +2413,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90"/>
+        <v>48</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
       <c r="C90" t="n">
         <v>2011</v>
       </c>
@@ -1913,9 +2427,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91"/>
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
       <c r="C91" t="n">
         <v>2012</v>
       </c>
@@ -1925,9 +2441,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92"/>
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" t="n">
         <v>2013</v>
       </c>
@@ -1937,9 +2455,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93"/>
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1949,9 +2469,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94"/>
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
       <c r="C94" t="n">
         <v>2011</v>
       </c>
@@ -1961,9 +2483,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95"/>
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
       <c r="C95" t="n">
         <v>2012</v>
       </c>
@@ -1971,9 +2495,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96"/>
+        <v>50</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
       <c r="C96" t="n">
         <v>2013</v>
       </c>
@@ -1983,9 +2509,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97"/>
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -1995,9 +2523,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98"/>
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" t="n">
         <v>2011</v>
       </c>
@@ -2007,9 +2537,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99"/>
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" t="n">
         <v>2012</v>
       </c>
@@ -2019,9 +2551,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100"/>
+        <v>52</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
       <c r="C100" t="n">
         <v>2013</v>
       </c>
@@ -2031,9 +2565,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101"/>
+        <v>52</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2043,9 +2579,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102"/>
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
       <c r="C102" t="n">
         <v>2011</v>
       </c>
@@ -2055,9 +2593,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103"/>
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
       <c r="C103" t="n">
         <v>2012</v>
       </c>
@@ -2067,9 +2607,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104"/>
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" t="n">
         <v>2013</v>
       </c>
@@ -2079,9 +2621,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105"/>
+        <v>54</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2091,9 +2635,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106"/>
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
       <c r="C106" t="n">
         <v>2011</v>
       </c>
@@ -2103,9 +2649,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107"/>
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
       <c r="C107" t="n">
         <v>2012</v>
       </c>
@@ -2115,9 +2663,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108"/>
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
       <c r="C108" t="n">
         <v>2013</v>
       </c>
@@ -2127,9 +2677,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109"/>
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2139,9 +2691,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110"/>
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
       <c r="C110" t="n">
         <v>2011</v>
       </c>
@@ -2151,9 +2705,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111"/>
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
       <c r="C111" t="n">
         <v>2012</v>
       </c>
@@ -2163,9 +2719,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112"/>
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
       <c r="C112" t="n">
         <v>2013</v>
       </c>
@@ -2175,9 +2733,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113"/>
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2187,9 +2747,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114"/>
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
       <c r="C114" t="n">
         <v>2011</v>
       </c>
@@ -2199,9 +2761,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
-      </c>
-      <c r="B115"/>
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" t="n">
         <v>2012</v>
       </c>
@@ -2211,9 +2775,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116"/>
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
       <c r="C116" t="n">
         <v>2013</v>
       </c>
@@ -2223,9 +2789,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117"/>
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" t="n">
         <v>2014</v>
       </c>
@@ -2235,9 +2803,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118"/>
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
       <c r="C118" t="n">
         <v>2011</v>
       </c>
@@ -2247,9 +2817,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B119"/>
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
       <c r="C119" t="n">
         <v>2012</v>
       </c>
@@ -2259,9 +2831,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120"/>
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
       <c r="C120" t="n">
         <v>2013</v>
       </c>
@@ -2271,9 +2845,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121"/>
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
       <c r="C121" t="n">
         <v>2014</v>
       </c>
@@ -2283,9 +2859,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122"/>
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
       <c r="C122" t="n">
         <v>2011</v>
       </c>
@@ -2295,9 +2873,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123"/>
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
       <c r="C123" t="n">
         <v>2012</v>
       </c>
@@ -2307,9 +2887,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124"/>
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
       <c r="C124" t="n">
         <v>2013</v>
       </c>
@@ -2319,9 +2901,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125"/>
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
       <c r="C125" t="n">
         <v>2014</v>
       </c>
@@ -2331,9 +2915,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126"/>
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
       <c r="C126" t="n">
         <v>2011</v>
       </c>
@@ -2343,9 +2929,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127"/>
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
       <c r="C127" t="n">
         <v>2012</v>
       </c>
@@ -2355,9 +2943,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128"/>
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
       <c r="C128" t="n">
         <v>2013</v>
       </c>
@@ -2367,9 +2957,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129"/>
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
       <c r="C129" t="n">
         <v>2014</v>
       </c>
@@ -2379,9 +2971,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B130"/>
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
       <c r="C130" t="n">
         <v>2011</v>
       </c>
@@ -2391,9 +2985,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131"/>
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
       <c r="C131" t="n">
         <v>2012</v>
       </c>
@@ -2403,9 +2999,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>36</v>
-      </c>
-      <c r="B132"/>
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
       <c r="C132" t="n">
         <v>2013</v>
       </c>
@@ -2415,9 +3013,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133"/>
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
       <c r="C133" t="n">
         <v>2014</v>
       </c>
@@ -2427,9 +3027,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134"/>
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>2011</v>
       </c>
@@ -2439,9 +3041,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135"/>
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
       <c r="C135" t="n">
         <v>2012</v>
       </c>
@@ -2451,9 +3055,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136"/>
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>2013</v>
       </c>
@@ -2463,9 +3069,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137"/>
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
       <c r="C137" t="n">
         <v>2014</v>
       </c>
@@ -2475,9 +3083,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B138"/>
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
       <c r="C138" t="n">
         <v>2011</v>
       </c>
@@ -2487,9 +3097,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139"/>
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
       <c r="C139" t="n">
         <v>2012</v>
       </c>
@@ -2499,9 +3111,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>38</v>
-      </c>
-      <c r="B140"/>
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
       <c r="C140" t="n">
         <v>2013</v>
       </c>
@@ -2511,9 +3125,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B141"/>
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
       <c r="C141" t="n">
         <v>2014</v>
       </c>
@@ -2523,9 +3139,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142"/>
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
       <c r="C142" t="n">
         <v>2011</v>
       </c>
@@ -2535,9 +3153,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143"/>
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
       <c r="C143" t="n">
         <v>2012</v>
       </c>
@@ -2547,9 +3167,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144"/>
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
       <c r="C144" t="n">
         <v>2013</v>
       </c>
@@ -2559,9 +3181,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145"/>
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
       <c r="C145" t="n">
         <v>2014</v>
       </c>
@@ -2571,9 +3195,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>40</v>
-      </c>
-      <c r="B146"/>
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
       <c r="C146" t="n">
         <v>2011</v>
       </c>
@@ -2583,9 +3209,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>40</v>
-      </c>
-      <c r="B147"/>
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
       <c r="C147" t="n">
         <v>2012</v>
       </c>
@@ -2595,9 +3223,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148"/>
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
       <c r="C148" t="n">
         <v>2013</v>
       </c>
@@ -2607,9 +3237,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149"/>
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
       <c r="C149" t="n">
         <v>2014</v>
       </c>
@@ -2619,9 +3251,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150"/>
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
       <c r="C150" t="n">
         <v>2011</v>
       </c>
@@ -2631,9 +3265,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151"/>
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
       <c r="C151" t="n">
         <v>2012</v>
       </c>
@@ -2643,9 +3279,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>41</v>
-      </c>
-      <c r="B152"/>
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
       <c r="C152" t="n">
         <v>2013</v>
       </c>
@@ -2655,9 +3293,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>41</v>
-      </c>
-      <c r="B153"/>
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
       <c r="C153" t="n">
         <v>2014</v>
       </c>
@@ -2667,9 +3307,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154"/>
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
       <c r="C154" t="n">
         <v>2011</v>
       </c>
@@ -2679,9 +3321,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155"/>
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
       <c r="C155" t="n">
         <v>2012</v>
       </c>
@@ -2691,9 +3335,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156"/>
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
       <c r="C156" t="n">
         <v>2013</v>
       </c>
@@ -2703,9 +3349,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157"/>
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
       <c r="C157" t="n">
         <v>2014</v>
       </c>
@@ -2715,9 +3363,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>43</v>
-      </c>
-      <c r="B158"/>
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
       <c r="C158" t="n">
         <v>2011</v>
       </c>
@@ -2727,9 +3377,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159"/>
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
       <c r="C159" t="n">
         <v>2012</v>
       </c>
@@ -2739,9 +3391,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B160"/>
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
       <c r="C160" t="n">
         <v>2013</v>
       </c>
@@ -2751,9 +3405,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161"/>
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
       <c r="C161" t="n">
         <v>2014</v>
       </c>
@@ -2763,9 +3419,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>44</v>
-      </c>
-      <c r="B162"/>
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
       <c r="C162" t="n">
         <v>2011</v>
       </c>
@@ -2775,9 +3433,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>44</v>
-      </c>
-      <c r="B163"/>
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
       <c r="C163" t="n">
         <v>2012</v>
       </c>
@@ -2787,9 +3447,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>44</v>
-      </c>
-      <c r="B164"/>
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
       <c r="C164" t="n">
         <v>2013</v>
       </c>
@@ -2799,9 +3461,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>44</v>
-      </c>
-      <c r="B165"/>
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
       <c r="C165" t="n">
         <v>2014</v>
       </c>
@@ -2811,9 +3475,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166"/>
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
       <c r="C166" t="n">
         <v>2011</v>
       </c>
@@ -2823,9 +3489,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167"/>
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
       <c r="C167" t="n">
         <v>2012</v>
       </c>
@@ -2835,9 +3503,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168"/>
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
       <c r="C168" t="n">
         <v>2013</v>
       </c>
@@ -2847,9 +3517,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169"/>
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
       <c r="C169" t="n">
         <v>2014</v>
       </c>
@@ -2859,9 +3531,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>46</v>
-      </c>
-      <c r="B170"/>
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
       <c r="C170" t="n">
         <v>2011</v>
       </c>
@@ -2871,9 +3545,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
-      </c>
-      <c r="B171"/>
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
       <c r="C171" t="n">
         <v>2012</v>
       </c>
@@ -2883,9 +3559,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
-      </c>
-      <c r="B172"/>
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
       <c r="C172" t="n">
         <v>2013</v>
       </c>
@@ -2895,9 +3573,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173"/>
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
       <c r="C173" t="n">
         <v>2014</v>
       </c>
@@ -2907,9 +3587,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B174"/>
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
       <c r="C174" t="n">
         <v>2011</v>
       </c>
@@ -2919,9 +3601,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>47</v>
-      </c>
-      <c r="B175"/>
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
       <c r="C175" t="n">
         <v>2012</v>
       </c>
@@ -2931,9 +3615,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176"/>
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
       <c r="C176" t="n">
         <v>2013</v>
       </c>
@@ -2943,9 +3629,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>47</v>
-      </c>
-      <c r="B177"/>
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
       <c r="C177" t="n">
         <v>2014</v>
       </c>
@@ -2955,9 +3643,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="B178"/>
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
       <c r="C178" t="n">
         <v>2011</v>
       </c>
@@ -2967,9 +3657,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="B179"/>
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
       <c r="C179" t="n">
         <v>2012</v>
       </c>
@@ -2979,9 +3671,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="B180"/>
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
       <c r="C180" t="n">
         <v>2013</v>
       </c>
@@ -2991,9 +3685,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B181"/>
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
       <c r="C181" t="n">
         <v>2014</v>
       </c>
@@ -3003,9 +3699,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>49</v>
-      </c>
-      <c r="B182"/>
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
       <c r="C182" t="n">
         <v>2011</v>
       </c>
@@ -3015,9 +3713,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>49</v>
-      </c>
-      <c r="B183"/>
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
       <c r="C183" t="n">
         <v>2012</v>
       </c>
@@ -3027,9 +3727,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184"/>
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
       <c r="C184" t="n">
         <v>2013</v>
       </c>
@@ -3039,9 +3741,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>49</v>
-      </c>
-      <c r="B185"/>
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
       <c r="C185" t="n">
         <v>2014</v>
       </c>
@@ -3051,9 +3755,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
-      </c>
-      <c r="B186"/>
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
       <c r="C186" t="n">
         <v>2011</v>
       </c>
@@ -3063,9 +3769,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>50</v>
-      </c>
-      <c r="B187"/>
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
       <c r="C187" t="n">
         <v>2012</v>
       </c>
@@ -3075,9 +3783,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>50</v>
-      </c>
-      <c r="B188"/>
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
       <c r="C188" t="n">
         <v>2013</v>
       </c>
@@ -3087,9 +3797,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189"/>
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
       <c r="C189" t="n">
         <v>2014</v>
       </c>
@@ -3099,9 +3811,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>51</v>
-      </c>
-      <c r="B190"/>
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
       <c r="C190" t="n">
         <v>2011</v>
       </c>
@@ -3111,9 +3825,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
-      </c>
-      <c r="B191"/>
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
       <c r="C191" t="n">
         <v>2012</v>
       </c>
@@ -3123,9 +3839,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>51</v>
-      </c>
-      <c r="B192"/>
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
       <c r="C192" t="n">
         <v>2013</v>
       </c>
@@ -3135,9 +3853,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>51</v>
-      </c>
-      <c r="B193"/>
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
       <c r="C193" t="n">
         <v>2014</v>
       </c>
@@ -3147,9 +3867,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194"/>
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
       <c r="C194" t="n">
         <v>2011</v>
       </c>
@@ -3159,9 +3881,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
-      </c>
-      <c r="B195"/>
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
       <c r="C195" t="n">
         <v>2012</v>
       </c>
@@ -3171,9 +3895,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196"/>
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
       <c r="C196" t="n">
         <v>2013</v>
       </c>
@@ -3183,9 +3909,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197"/>
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
       <c r="C197" t="n">
         <v>2014</v>
       </c>
@@ -3195,9 +3923,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>53</v>
-      </c>
-      <c r="B198"/>
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" t="n">
         <v>2011</v>
       </c>
@@ -3207,9 +3937,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>53</v>
-      </c>
-      <c r="B199"/>
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
       <c r="C199" t="n">
         <v>2012</v>
       </c>
@@ -3219,9 +3951,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200"/>
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
       <c r="C200" t="n">
         <v>2013</v>
       </c>
@@ -3231,9 +3965,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201"/>
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
       <c r="C201" t="n">
         <v>2014</v>
       </c>
@@ -3243,9 +3979,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>54</v>
-      </c>
-      <c r="B202"/>
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
       <c r="C202" t="n">
         <v>2011</v>
       </c>
@@ -3255,9 +3993,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>54</v>
-      </c>
-      <c r="B203"/>
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
       <c r="C203" t="n">
         <v>2012</v>
       </c>
@@ -3265,9 +4005,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204"/>
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
       <c r="C204" t="n">
         <v>2013</v>
       </c>
@@ -3277,9 +4019,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>54</v>
-      </c>
-      <c r="B205"/>
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
       <c r="C205" t="n">
         <v>2014</v>
       </c>
@@ -3289,9 +4033,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>55</v>
-      </c>
-      <c r="B206"/>
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
       <c r="C206" t="n">
         <v>2011</v>
       </c>
@@ -3301,9 +4047,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207"/>
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
       <c r="C207" t="n">
         <v>2012</v>
       </c>
@@ -3313,9 +4061,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208"/>
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
       <c r="C208" t="n">
         <v>2013</v>
       </c>
@@ -3325,9 +4075,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>55</v>
-      </c>
-      <c r="B209"/>
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
       <c r="C209" t="n">
         <v>2014</v>
       </c>
@@ -3337,9 +4089,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210"/>
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
       <c r="C210" t="n">
         <v>2011</v>
       </c>
@@ -3349,9 +4103,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>56</v>
-      </c>
-      <c r="B211"/>
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
       <c r="C211" t="n">
         <v>2012</v>
       </c>
@@ -3359,9 +4115,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>56</v>
-      </c>
-      <c r="B212"/>
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
       <c r="C212" t="n">
         <v>2013</v>
       </c>
@@ -3371,9 +4129,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>56</v>
-      </c>
-      <c r="B213"/>
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
       <c r="C213" t="n">
         <v>2014</v>
       </c>
@@ -3383,9 +4143,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B214"/>
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
       <c r="C214" t="n">
         <v>2011</v>
       </c>
@@ -3395,9 +4157,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215"/>
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
       <c r="C215" t="n">
         <v>2012</v>
       </c>
@@ -3405,9 +4169,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216"/>
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
       <c r="C216" t="n">
         <v>2013</v>
       </c>
@@ -3417,9 +4183,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217"/>
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
       <c r="C217" t="n">
         <v>2014</v>
       </c>
@@ -3429,9 +4197,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B218"/>
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
       <c r="C218" t="n">
         <v>2011</v>
       </c>
@@ -3441,9 +4211,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219"/>
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
       <c r="C219" t="n">
         <v>2012</v>
       </c>
@@ -3453,9 +4225,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>58</v>
-      </c>
-      <c r="B220"/>
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
       <c r="C220" t="n">
         <v>2013</v>
       </c>
@@ -3465,9 +4239,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>58</v>
-      </c>
-      <c r="B221"/>
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
       <c r="C221" t="n">
         <v>2014</v>
       </c>
@@ -3477,9 +4253,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>59</v>
-      </c>
-      <c r="B222"/>
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" t="n">
         <v>2011</v>
       </c>
@@ -3489,9 +4267,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223"/>
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" t="n">
         <v>2012</v>
       </c>
@@ -3501,9 +4281,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B224"/>
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
       <c r="C224" t="n">
         <v>2013</v>
       </c>
@@ -3513,9 +4295,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225"/>
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
       <c r="C225" t="n">
         <v>2014</v>
       </c>
@@ -3525,9 +4309,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226"/>
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
       <c r="C226" t="n">
         <v>2011</v>
       </c>
@@ -3537,9 +4323,11 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227"/>
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
       <c r="C227" t="n">
         <v>2012</v>
       </c>
@@ -3549,9 +4337,11 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228"/>
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
       <c r="C228" t="n">
         <v>2013</v>
       </c>
@@ -3561,9 +4351,11 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229"/>
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
       <c r="C229" t="n">
         <v>2014</v>
       </c>
@@ -3573,9 +4365,11 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230"/>
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
       <c r="C230" t="n">
         <v>2011</v>
       </c>
@@ -3585,9 +4379,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>61</v>
-      </c>
-      <c r="B231"/>
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
       <c r="C231" t="n">
         <v>2012</v>
       </c>
@@ -3597,9 +4393,11 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>61</v>
-      </c>
-      <c r="B232"/>
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
       <c r="C232" t="n">
         <v>2013</v>
       </c>
@@ -3609,9 +4407,11 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>61</v>
-      </c>
-      <c r="B233"/>
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
       <c r="C233" t="n">
         <v>2014</v>
       </c>
@@ -3621,9 +4421,11 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>62</v>
-      </c>
-      <c r="B234"/>
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
       <c r="C234" t="n">
         <v>2011</v>
       </c>
@@ -3633,9 +4435,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>62</v>
-      </c>
-      <c r="B235"/>
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
       <c r="C235" t="n">
         <v>2012</v>
       </c>
@@ -3645,9 +4449,11 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>62</v>
-      </c>
-      <c r="B236"/>
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
       <c r="C236" t="n">
         <v>2013</v>
       </c>
@@ -3657,9 +4463,11 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>62</v>
-      </c>
-      <c r="B237"/>
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
       <c r="C237" t="n">
         <v>2014</v>
       </c>
@@ -3669,9 +4477,11 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>63</v>
-      </c>
-      <c r="B238"/>
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
       <c r="C238" t="n">
         <v>2011</v>
       </c>
@@ -3681,9 +4491,11 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>63</v>
-      </c>
-      <c r="B239"/>
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
       <c r="C239" t="n">
         <v>2012</v>
       </c>
@@ -3693,9 +4505,11 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>63</v>
-      </c>
-      <c r="B240"/>
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
       <c r="C240" t="n">
         <v>2013</v>
       </c>
@@ -3705,9 +4519,11 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>63</v>
-      </c>
-      <c r="B241"/>
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
       <c r="C241" t="n">
         <v>2014</v>
       </c>
@@ -3717,9 +4533,11 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>64</v>
-      </c>
-      <c r="B242"/>
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
       <c r="C242" t="n">
         <v>2011</v>
       </c>
@@ -3729,9 +4547,11 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>64</v>
-      </c>
-      <c r="B243"/>
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
       <c r="C243" t="n">
         <v>2012</v>
       </c>
@@ -3741,9 +4561,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>64</v>
-      </c>
-      <c r="B244"/>
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
       <c r="C244" t="n">
         <v>2013</v>
       </c>
@@ -3753,9 +4575,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>64</v>
-      </c>
-      <c r="B245"/>
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
       <c r="C245" t="n">
         <v>2014</v>
       </c>
@@ -3765,9 +4589,11 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246"/>
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
       <c r="C246" t="n">
         <v>2011</v>
       </c>
@@ -3777,9 +4603,11 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>65</v>
-      </c>
-      <c r="B247"/>
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
       <c r="C247" t="n">
         <v>2012</v>
       </c>
@@ -3789,9 +4617,11 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
-      </c>
-      <c r="B248"/>
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
       <c r="C248" t="n">
         <v>2013</v>
       </c>
@@ -3801,9 +4631,11 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>65</v>
-      </c>
-      <c r="B249"/>
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
       <c r="C249" t="n">
         <v>2014</v>
       </c>
@@ -3813,9 +4645,11 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B250"/>
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
       <c r="C250" t="n">
         <v>2011</v>
       </c>
@@ -3825,9 +4659,11 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251"/>
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
       <c r="C251" t="n">
         <v>2012</v>
       </c>
@@ -3837,9 +4673,11 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
-      </c>
-      <c r="B252"/>
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
       <c r="C252" t="n">
         <v>2013</v>
       </c>
@@ -3849,9 +4687,11 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>66</v>
-      </c>
-      <c r="B253"/>
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
       <c r="C253" t="n">
         <v>2014</v>
       </c>
@@ -3861,9 +4701,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>67</v>
-      </c>
-      <c r="B254"/>
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
       <c r="C254" t="n">
         <v>2011</v>
       </c>
@@ -3873,9 +4715,11 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255"/>
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
       <c r="C255" t="n">
         <v>2012</v>
       </c>
@@ -3885,9 +4729,11 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256"/>
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
       <c r="C256" t="n">
         <v>2013</v>
       </c>
@@ -3897,9 +4743,11 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257"/>
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
       <c r="C257" t="n">
         <v>2014</v>
       </c>
@@ -3909,9 +4757,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B258"/>
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
       <c r="C258" t="n">
         <v>2011</v>
       </c>
@@ -3921,9 +4771,11 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>68</v>
-      </c>
-      <c r="B259"/>
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
       <c r="C259" t="n">
         <v>2012</v>
       </c>
@@ -3933,9 +4785,11 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
-      </c>
-      <c r="B260"/>
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
       <c r="C260" t="n">
         <v>2013</v>
       </c>
@@ -3945,9 +4799,11 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>68</v>
-      </c>
-      <c r="B261"/>
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
       <c r="C261" t="n">
         <v>2014</v>
       </c>
@@ -3957,9 +4813,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>69</v>
-      </c>
-      <c r="B262"/>
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
       <c r="C262" t="n">
         <v>2011</v>
       </c>
@@ -3969,9 +4827,11 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>69</v>
-      </c>
-      <c r="B263"/>
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
       <c r="C263" t="n">
         <v>2012</v>
       </c>
@@ -3981,9 +4841,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>69</v>
-      </c>
-      <c r="B264"/>
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
       <c r="C264" t="n">
         <v>2013</v>
       </c>
@@ -3993,9 +4855,11 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>69</v>
-      </c>
-      <c r="B265"/>
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
       <c r="C265" t="n">
         <v>2014</v>
       </c>
@@ -4005,9 +4869,11 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>70</v>
-      </c>
-      <c r="B266"/>
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
       <c r="C266" t="n">
         <v>2011</v>
       </c>
@@ -4017,9 +4883,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>70</v>
-      </c>
-      <c r="B267"/>
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
       <c r="C267" t="n">
         <v>2012</v>
       </c>
@@ -4029,9 +4897,11 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>70</v>
-      </c>
-      <c r="B268"/>
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
       <c r="C268" t="n">
         <v>2013</v>
       </c>
@@ -4041,9 +4911,11 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>70</v>
-      </c>
-      <c r="B269"/>
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
       <c r="C269" t="n">
         <v>2014</v>
       </c>
@@ -4053,9 +4925,11 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>71</v>
-      </c>
-      <c r="B270"/>
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
       <c r="C270" t="n">
         <v>2011</v>
       </c>
@@ -4065,9 +4939,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>71</v>
-      </c>
-      <c r="B271"/>
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
       <c r="C271" t="n">
         <v>2012</v>
       </c>
@@ -4077,9 +4953,11 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>71</v>
-      </c>
-      <c r="B272"/>
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
       <c r="C272" t="n">
         <v>2013</v>
       </c>
@@ -4089,9 +4967,11 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>71</v>
-      </c>
-      <c r="B273"/>
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
       <c r="C273" t="n">
         <v>2014</v>
       </c>
@@ -4101,9 +4981,11 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>72</v>
-      </c>
-      <c r="B274"/>
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
       <c r="C274" t="n">
         <v>2011</v>
       </c>
@@ -4113,9 +4995,11 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>72</v>
-      </c>
-      <c r="B275"/>
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
       <c r="C275" t="n">
         <v>2012</v>
       </c>
@@ -4125,9 +5009,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>72</v>
-      </c>
-      <c r="B276"/>
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
       <c r="C276" t="n">
         <v>2013</v>
       </c>
@@ -4137,9 +5023,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>72</v>
-      </c>
-      <c r="B277"/>
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
       <c r="C277" t="n">
         <v>2014</v>
       </c>
@@ -4149,9 +5037,11 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>73</v>
-      </c>
-      <c r="B278"/>
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
       <c r="C278" t="n">
         <v>2011</v>
       </c>
@@ -4161,9 +5051,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>73</v>
-      </c>
-      <c r="B279"/>
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
       <c r="C279" t="n">
         <v>2012</v>
       </c>
@@ -4173,9 +5065,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>73</v>
-      </c>
-      <c r="B280"/>
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
       <c r="C280" t="n">
         <v>2013</v>
       </c>
@@ -4185,9 +5079,11 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>73</v>
-      </c>
-      <c r="B281"/>
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
       <c r="C281" t="n">
         <v>2014</v>
       </c>
@@ -4197,9 +5093,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282"/>
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
       <c r="C282" t="n">
         <v>2011</v>
       </c>
@@ -4209,9 +5107,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283"/>
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
       <c r="C283" t="n">
         <v>2012</v>
       </c>
@@ -4221,9 +5121,11 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284"/>
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
       <c r="C284" t="n">
         <v>2013</v>
       </c>
@@ -4233,9 +5135,11 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285"/>
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
       <c r="C285" t="n">
         <v>2014</v>
       </c>
@@ -4245,9 +5149,11 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>75</v>
-      </c>
-      <c r="B286"/>
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
       <c r="C286" t="n">
         <v>2011</v>
       </c>
@@ -4257,9 +5163,11 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>75</v>
-      </c>
-      <c r="B287"/>
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
       <c r="C287" t="n">
         <v>2012</v>
       </c>
@@ -4269,9 +5177,11 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>75</v>
-      </c>
-      <c r="B288"/>
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
       <c r="C288" t="n">
         <v>2013</v>
       </c>
@@ -4281,9 +5191,11 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>75</v>
-      </c>
-      <c r="B289"/>
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
       <c r="C289" t="n">
         <v>2014</v>
       </c>
@@ -4293,9 +5205,11 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>76</v>
-      </c>
-      <c r="B290"/>
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
       <c r="C290" t="n">
         <v>2011</v>
       </c>
@@ -4305,9 +5219,11 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>76</v>
-      </c>
-      <c r="B291"/>
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
       <c r="C291" t="n">
         <v>2012</v>
       </c>
@@ -4317,9 +5233,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>76</v>
-      </c>
-      <c r="B292"/>
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
       <c r="C292" t="n">
         <v>2013</v>
       </c>
@@ -4329,9 +5247,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>76</v>
-      </c>
-      <c r="B293"/>
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
       <c r="C293" t="n">
         <v>2014</v>
       </c>
@@ -4341,9 +5261,11 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>77</v>
-      </c>
-      <c r="B294"/>
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
       <c r="C294" t="n">
         <v>2011</v>
       </c>
@@ -4353,9 +5275,11 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>77</v>
-      </c>
-      <c r="B295"/>
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
       <c r="C295" t="n">
         <v>2012</v>
       </c>
@@ -4365,9 +5289,11 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>77</v>
-      </c>
-      <c r="B296"/>
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
       <c r="C296" t="n">
         <v>2013</v>
       </c>
@@ -4377,9 +5303,11 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>77</v>
-      </c>
-      <c r="B297"/>
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
       <c r="C297" t="n">
         <v>2014</v>
       </c>
@@ -4389,9 +5317,11 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>78</v>
-      </c>
-      <c r="B298"/>
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
       <c r="C298" t="n">
         <v>2011</v>
       </c>
@@ -4401,9 +5331,11 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>78</v>
-      </c>
-      <c r="B299"/>
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
       <c r="C299" t="n">
         <v>2012</v>
       </c>
@@ -4413,9 +5345,11 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300"/>
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
       <c r="C300" t="n">
         <v>2013</v>
       </c>
@@ -4425,9 +5359,11 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>78</v>
-      </c>
-      <c r="B301"/>
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
       <c r="C301" t="n">
         <v>2014</v>
       </c>
@@ -4437,9 +5373,11 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B302"/>
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
       <c r="C302" t="n">
         <v>2011</v>
       </c>
@@ -4449,9 +5387,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>79</v>
-      </c>
-      <c r="B303"/>
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
       <c r="C303" t="n">
         <v>2012</v>
       </c>
@@ -4459,9 +5399,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>79</v>
-      </c>
-      <c r="B304"/>
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
       <c r="C304" t="n">
         <v>2013</v>
       </c>
@@ -4471,9 +5413,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>79</v>
-      </c>
-      <c r="B305"/>
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
       <c r="C305" t="n">
         <v>2014</v>
       </c>
@@ -4483,9 +5427,11 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>80</v>
-      </c>
-      <c r="B306"/>
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
       <c r="C306" t="n">
         <v>2011</v>
       </c>
@@ -4495,9 +5441,11 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>80</v>
-      </c>
-      <c r="B307"/>
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
       <c r="C307" t="n">
         <v>2012</v>
       </c>
@@ -4507,9 +5455,11 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>80</v>
-      </c>
-      <c r="B308"/>
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
       <c r="C308" t="n">
         <v>2013</v>
       </c>
@@ -4519,9 +5469,11 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>80</v>
-      </c>
-      <c r="B309"/>
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
       <c r="C309" t="n">
         <v>2014</v>
       </c>
@@ -4531,9 +5483,11 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>81</v>
-      </c>
-      <c r="B310"/>
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
       <c r="C310" t="n">
         <v>2011</v>
       </c>
@@ -4543,9 +5497,11 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>81</v>
-      </c>
-      <c r="B311"/>
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
       <c r="C311" t="n">
         <v>2012</v>
       </c>
@@ -4553,9 +5509,11 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>81</v>
-      </c>
-      <c r="B312"/>
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
       <c r="C312" t="n">
         <v>2013</v>
       </c>
@@ -4565,9 +5523,11 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>81</v>
-      </c>
-      <c r="B313"/>
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
       <c r="C313" t="n">
         <v>2014</v>
       </c>
@@ -4577,9 +5537,11 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>82</v>
-      </c>
-      <c r="B314"/>
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
       <c r="C314" t="n">
         <v>2011</v>
       </c>
@@ -4587,9 +5549,11 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>82</v>
-      </c>
-      <c r="B315"/>
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
       <c r="C315" t="n">
         <v>2012</v>
       </c>
@@ -4597,9 +5561,11 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>82</v>
-      </c>
-      <c r="B316"/>
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
       <c r="C316" t="n">
         <v>2013</v>
       </c>
@@ -4609,9 +5575,11 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>82</v>
-      </c>
-      <c r="B317"/>
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
       <c r="C317" t="n">
         <v>2014</v>
       </c>
@@ -4621,9 +5589,11 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>83</v>
-      </c>
-      <c r="B318"/>
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
       <c r="C318" t="n">
         <v>2011</v>
       </c>
@@ -4633,9 +5603,11 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>83</v>
-      </c>
-      <c r="B319"/>
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
       <c r="C319" t="n">
         <v>2012</v>
       </c>
@@ -4645,9 +5617,11 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>83</v>
-      </c>
-      <c r="B320"/>
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
       <c r="C320" t="n">
         <v>2013</v>
       </c>
@@ -4657,9 +5631,11 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B321"/>
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
       <c r="C321" t="n">
         <v>2014</v>
       </c>
@@ -4669,9 +5645,11 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>84</v>
-      </c>
-      <c r="B322"/>
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
       <c r="C322" t="n">
         <v>2011</v>
       </c>
@@ -4681,9 +5659,11 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>84</v>
-      </c>
-      <c r="B323"/>
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
       <c r="C323" t="n">
         <v>2012</v>
       </c>
@@ -4691,9 +5671,11 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>84</v>
-      </c>
-      <c r="B324"/>
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
       <c r="C324" t="n">
         <v>2013</v>
       </c>
@@ -4703,9 +5685,11 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>84</v>
-      </c>
-      <c r="B325"/>
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
       <c r="C325" t="n">
         <v>2014</v>
       </c>
@@ -4715,9 +5699,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>85</v>
-      </c>
-      <c r="B326"/>
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
       <c r="C326" t="n">
         <v>2011</v>
       </c>
@@ -4727,9 +5713,11 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>85</v>
-      </c>
-      <c r="B327"/>
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
       <c r="C327" t="n">
         <v>2012</v>
       </c>
@@ -4739,9 +5727,11 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>85</v>
-      </c>
-      <c r="B328"/>
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
       <c r="C328" t="n">
         <v>2013</v>
       </c>
@@ -4751,9 +5741,11 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>85</v>
-      </c>
-      <c r="B329"/>
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
       <c r="C329" t="n">
         <v>2014</v>
       </c>
@@ -4763,9 +5755,11 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>86</v>
-      </c>
-      <c r="B330"/>
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
       <c r="C330" t="n">
         <v>2011</v>
       </c>
@@ -4775,9 +5769,11 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>86</v>
-      </c>
-      <c r="B331"/>
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
       <c r="C331" t="n">
         <v>2012</v>
       </c>
@@ -4785,9 +5781,11 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>86</v>
-      </c>
-      <c r="B332"/>
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
       <c r="C332" t="n">
         <v>2013</v>
       </c>
@@ -4797,9 +5795,11 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>86</v>
-      </c>
-      <c r="B333"/>
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
       <c r="C333" t="n">
         <v>2014</v>
       </c>
@@ -4809,9 +5809,11 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>87</v>
-      </c>
-      <c r="B334"/>
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
       <c r="C334" t="n">
         <v>2011</v>
       </c>
@@ -4821,9 +5823,11 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>87</v>
-      </c>
-      <c r="B335"/>
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
       <c r="C335" t="n">
         <v>2012</v>
       </c>
@@ -4831,9 +5835,11 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>87</v>
-      </c>
-      <c r="B336"/>
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
       <c r="C336" t="n">
         <v>2013</v>
       </c>
@@ -4843,9 +5849,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>87</v>
-      </c>
-      <c r="B337"/>
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
       <c r="C337" t="n">
         <v>2014</v>
       </c>
@@ -4855,9 +5863,11 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>88</v>
-      </c>
-      <c r="B338"/>
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
       <c r="C338" t="n">
         <v>2011</v>
       </c>
@@ -4867,9 +5877,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>88</v>
-      </c>
-      <c r="B339"/>
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
       <c r="C339" t="n">
         <v>2012</v>
       </c>
@@ -4877,9 +5889,11 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>88</v>
-      </c>
-      <c r="B340"/>
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
       <c r="C340" t="n">
         <v>2013</v>
       </c>
@@ -4889,9 +5903,11 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>88</v>
-      </c>
-      <c r="B341"/>
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
       <c r="C341" t="n">
         <v>2014</v>
       </c>
@@ -4901,9 +5917,11 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>89</v>
-      </c>
-      <c r="B342"/>
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
       <c r="C342" t="n">
         <v>2011</v>
       </c>
@@ -4913,9 +5931,11 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>89</v>
-      </c>
-      <c r="B343"/>
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
       <c r="C343" t="n">
         <v>2012</v>
       </c>
@@ -4923,9 +5943,11 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>89</v>
-      </c>
-      <c r="B344"/>
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
       <c r="C344" t="n">
         <v>2013</v>
       </c>
@@ -4935,9 +5957,11 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>89</v>
-      </c>
-      <c r="B345"/>
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
       <c r="C345" t="n">
         <v>2014</v>
       </c>
@@ -4947,9 +5971,11 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>90</v>
-      </c>
-      <c r="B346"/>
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
       <c r="C346" t="n">
         <v>2011</v>
       </c>
@@ -4959,9 +5985,11 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>90</v>
-      </c>
-      <c r="B347"/>
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
       <c r="C347" t="n">
         <v>2012</v>
       </c>
@@ -4971,9 +5999,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>90</v>
-      </c>
-      <c r="B348"/>
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
       <c r="C348" t="n">
         <v>2013</v>
       </c>
@@ -4983,9 +6013,11 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>90</v>
-      </c>
-      <c r="B349"/>
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
       <c r="C349" t="n">
         <v>2014</v>
       </c>
@@ -4995,9 +6027,11 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>91</v>
-      </c>
-      <c r="B350"/>
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
       <c r="C350" t="n">
         <v>2011</v>
       </c>
@@ -5007,9 +6041,11 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>91</v>
-      </c>
-      <c r="B351"/>
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
       <c r="C351" t="n">
         <v>2012</v>
       </c>
@@ -5019,9 +6055,11 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>91</v>
-      </c>
-      <c r="B352"/>
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" t="n">
         <v>2013</v>
       </c>
@@ -5031,9 +6069,11 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>91</v>
-      </c>
-      <c r="B353"/>
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
       <c r="C353" t="n">
         <v>2014</v>
       </c>
@@ -5043,9 +6083,11 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>92</v>
-      </c>
-      <c r="B354"/>
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
       <c r="C354" t="n">
         <v>2011</v>
       </c>
@@ -5055,9 +6097,11 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>92</v>
-      </c>
-      <c r="B355"/>
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
       <c r="C355" t="n">
         <v>2012</v>
       </c>
@@ -5067,9 +6111,11 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>92</v>
-      </c>
-      <c r="B356"/>
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
       <c r="C356" t="n">
         <v>2013</v>
       </c>
@@ -5079,9 +6125,11 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>92</v>
-      </c>
-      <c r="B357"/>
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
       <c r="C357" t="n">
         <v>2014</v>
       </c>
@@ -5091,9 +6139,11 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>93</v>
-      </c>
-      <c r="B358"/>
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
       <c r="C358" t="n">
         <v>2011</v>
       </c>
@@ -5103,9 +6153,11 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>93</v>
-      </c>
-      <c r="B359"/>
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
       <c r="C359" t="n">
         <v>2012</v>
       </c>
@@ -5115,9 +6167,11 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>93</v>
-      </c>
-      <c r="B360"/>
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
       <c r="C360" t="n">
         <v>2013</v>
       </c>
@@ -5127,9 +6181,11 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>93</v>
-      </c>
-      <c r="B361"/>
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
       <c r="C361" t="n">
         <v>2014</v>
       </c>
@@ -5139,9 +6195,11 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>94</v>
-      </c>
-      <c r="B362"/>
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
       <c r="C362" t="n">
         <v>2011</v>
       </c>
@@ -5151,9 +6209,11 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>94</v>
-      </c>
-      <c r="B363"/>
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
       <c r="C363" t="n">
         <v>2012</v>
       </c>
@@ -5163,9 +6223,11 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>94</v>
-      </c>
-      <c r="B364"/>
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
       <c r="C364" t="n">
         <v>2013</v>
       </c>
@@ -5175,9 +6237,11 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>94</v>
-      </c>
-      <c r="B365"/>
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
       <c r="C365" t="n">
         <v>2014</v>
       </c>
@@ -5187,9 +6251,11 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>95</v>
-      </c>
-      <c r="B366"/>
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
       <c r="C366" t="n">
         <v>2011</v>
       </c>
@@ -5199,9 +6265,11 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367"/>
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
       <c r="C367" t="n">
         <v>2012</v>
       </c>
@@ -5211,9 +6279,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>95</v>
-      </c>
-      <c r="B368"/>
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
       <c r="C368" t="n">
         <v>2013</v>
       </c>
@@ -5223,9 +6293,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>95</v>
-      </c>
-      <c r="B369"/>
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
       <c r="C369" t="n">
         <v>2014</v>
       </c>
@@ -5235,9 +6307,11 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>96</v>
-      </c>
-      <c r="B370"/>
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
       <c r="C370" t="n">
         <v>2011</v>
       </c>
@@ -5247,9 +6321,11 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>96</v>
-      </c>
-      <c r="B371"/>
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
       <c r="C371" t="n">
         <v>2012</v>
       </c>
@@ -5259,9 +6335,11 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>96</v>
-      </c>
-      <c r="B372"/>
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
       <c r="C372" t="n">
         <v>2013</v>
       </c>
@@ -5271,9 +6349,11 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>96</v>
-      </c>
-      <c r="B373"/>
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
       <c r="C373" t="n">
         <v>2014</v>
       </c>
@@ -5283,9 +6363,11 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>97</v>
-      </c>
-      <c r="B374"/>
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
       <c r="C374" t="n">
         <v>2011</v>
       </c>
@@ -5295,9 +6377,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>97</v>
-      </c>
-      <c r="B375"/>
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
       <c r="C375" t="n">
         <v>2012</v>
       </c>
@@ -5307,9 +6391,11 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>97</v>
-      </c>
-      <c r="B376"/>
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
       <c r="C376" t="n">
         <v>2013</v>
       </c>
@@ -5319,9 +6405,11 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>97</v>
-      </c>
-      <c r="B377"/>
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
       <c r="C377" t="n">
         <v>2014</v>
       </c>
@@ -5331,9 +6419,11 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>98</v>
-      </c>
-      <c r="B378"/>
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
       <c r="C378" t="n">
         <v>2011</v>
       </c>
@@ -5343,9 +6433,11 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>98</v>
-      </c>
-      <c r="B379"/>
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
       <c r="C379" t="n">
         <v>2012</v>
       </c>
@@ -5355,9 +6447,11 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>98</v>
-      </c>
-      <c r="B380"/>
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
       <c r="C380" t="n">
         <v>2013</v>
       </c>
@@ -5367,9 +6461,11 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>98</v>
-      </c>
-      <c r="B381"/>
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
       <c r="C381" t="n">
         <v>2014</v>
       </c>
@@ -5379,9 +6475,11 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>99</v>
-      </c>
-      <c r="B382"/>
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
       <c r="C382" t="n">
         <v>2011</v>
       </c>
@@ -5391,9 +6489,11 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>99</v>
-      </c>
-      <c r="B383"/>
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
       <c r="C383" t="n">
         <v>2012</v>
       </c>
@@ -5403,9 +6503,11 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>99</v>
-      </c>
-      <c r="B384"/>
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
       <c r="C384" t="n">
         <v>2013</v>
       </c>
@@ -5415,9 +6517,11 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>99</v>
-      </c>
-      <c r="B385"/>
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
       <c r="C385" t="n">
         <v>2014</v>
       </c>
@@ -5427,9 +6531,11 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>100</v>
-      </c>
-      <c r="B386"/>
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
       <c r="C386" t="n">
         <v>2011</v>
       </c>
@@ -5439,9 +6545,11 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>100</v>
-      </c>
-      <c r="B387"/>
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
       <c r="C387" t="n">
         <v>2012</v>
       </c>
@@ -5451,9 +6559,11 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>100</v>
-      </c>
-      <c r="B388"/>
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
       <c r="C388" t="n">
         <v>2013</v>
       </c>
@@ -5463,9 +6573,11 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>100</v>
-      </c>
-      <c r="B389"/>
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
       <c r="C389" t="n">
         <v>2014</v>
       </c>
@@ -5475,9 +6587,11 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>101</v>
-      </c>
-      <c r="B390"/>
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
       <c r="C390" t="n">
         <v>2011</v>
       </c>
@@ -5487,9 +6601,11 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>101</v>
-      </c>
-      <c r="B391"/>
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
       <c r="C391" t="n">
         <v>2012</v>
       </c>
@@ -5499,9 +6615,11 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>101</v>
-      </c>
-      <c r="B392"/>
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
       <c r="C392" t="n">
         <v>2013</v>
       </c>
@@ -5511,9 +6629,11 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>101</v>
-      </c>
-      <c r="B393"/>
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
       <c r="C393" t="n">
         <v>2014</v>
       </c>
@@ -5523,9 +6643,11 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>102</v>
-      </c>
-      <c r="B394"/>
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
       <c r="C394" t="n">
         <v>2011</v>
       </c>
@@ -5535,9 +6657,11 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>102</v>
-      </c>
-      <c r="B395"/>
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
       <c r="C395" t="n">
         <v>2012</v>
       </c>
@@ -5545,9 +6669,11 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>102</v>
-      </c>
-      <c r="B396"/>
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
       <c r="C396" t="n">
         <v>2013</v>
       </c>
@@ -5557,9 +6683,11 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>102</v>
-      </c>
-      <c r="B397"/>
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
       <c r="C397" t="n">
         <v>2014</v>
       </c>
@@ -5569,9 +6697,11 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>103</v>
-      </c>
-      <c r="B398"/>
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
       <c r="C398" t="n">
         <v>2011</v>
       </c>
@@ -5581,9 +6711,11 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>103</v>
-      </c>
-      <c r="B399"/>
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
       <c r="C399" t="n">
         <v>2012</v>
       </c>
@@ -5593,9 +6725,11 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>103</v>
-      </c>
-      <c r="B400"/>
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
       <c r="C400" t="n">
         <v>2013</v>
       </c>
@@ -5605,9 +6739,11 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>103</v>
-      </c>
-      <c r="B401"/>
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
       <c r="C401" t="n">
         <v>2014</v>
       </c>
@@ -5617,9 +6753,11 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402"/>
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
       <c r="C402" t="n">
         <v>2011</v>
       </c>
@@ -5629,9 +6767,11 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>104</v>
-      </c>
-      <c r="B403"/>
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
       <c r="C403" t="n">
         <v>2012</v>
       </c>
@@ -5641,9 +6781,11 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>104</v>
-      </c>
-      <c r="B404"/>
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
       <c r="C404" t="n">
         <v>2013</v>
       </c>
@@ -5653,9 +6795,11 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>104</v>
-      </c>
-      <c r="B405"/>
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
       <c r="C405" t="n">
         <v>2014</v>
       </c>
@@ -5665,9 +6809,11 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>105</v>
-      </c>
-      <c r="B406"/>
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
       <c r="C406" t="n">
         <v>2011</v>
       </c>
@@ -5677,9 +6823,11 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>105</v>
-      </c>
-      <c r="B407"/>
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
       <c r="C407" t="n">
         <v>2012</v>
       </c>
@@ -5689,9 +6837,11 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>105</v>
-      </c>
-      <c r="B408"/>
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
       <c r="C408" t="n">
         <v>2013</v>
       </c>
@@ -5701,9 +6851,11 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>105</v>
-      </c>
-      <c r="B409"/>
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
       <c r="C409" t="n">
         <v>2014</v>
       </c>
@@ -5713,9 +6865,11 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>106</v>
-      </c>
-      <c r="B410"/>
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
       <c r="C410" t="n">
         <v>2011</v>
       </c>
@@ -5725,9 +6879,11 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>106</v>
-      </c>
-      <c r="B411"/>
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
       <c r="C411" t="n">
         <v>2012</v>
       </c>
@@ -5737,9 +6893,11 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>106</v>
-      </c>
-      <c r="B412"/>
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
       <c r="C412" t="n">
         <v>2013</v>
       </c>
@@ -5749,9 +6907,11 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>106</v>
-      </c>
-      <c r="B413"/>
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
       <c r="C413" t="n">
         <v>2014</v>
       </c>
@@ -5761,9 +6921,11 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>107</v>
-      </c>
-      <c r="B414"/>
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
       <c r="C414" t="n">
         <v>2011</v>
       </c>
@@ -5773,9 +6935,11 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>107</v>
-      </c>
-      <c r="B415"/>
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
       <c r="C415" t="n">
         <v>2012</v>
       </c>
@@ -5785,9 +6949,11 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>107</v>
-      </c>
-      <c r="B416"/>
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
       <c r="C416" t="n">
         <v>2013</v>
       </c>
@@ -5797,9 +6963,11 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>107</v>
-      </c>
-      <c r="B417"/>
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
       <c r="C417" t="n">
         <v>2014</v>
       </c>
@@ -5809,9 +6977,11 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>108</v>
-      </c>
-      <c r="B418"/>
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
       <c r="C418" t="n">
         <v>2011</v>
       </c>
@@ -5821,9 +6991,11 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>108</v>
-      </c>
-      <c r="B419"/>
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
       <c r="C419" t="n">
         <v>2012</v>
       </c>
@@ -5833,9 +7005,11 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>108</v>
-      </c>
-      <c r="B420"/>
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
       <c r="C420" t="n">
         <v>2013</v>
       </c>
@@ -5845,9 +7019,11 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421"/>
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
       <c r="C421" t="n">
         <v>2014</v>
       </c>
@@ -5857,9 +7033,11 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422"/>
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
       <c r="C422" t="n">
         <v>2011</v>
       </c>
@@ -5869,9 +7047,11 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>109</v>
-      </c>
-      <c r="B423"/>
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
       <c r="C423" t="n">
         <v>2012</v>
       </c>
@@ -5879,9 +7059,11 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>109</v>
-      </c>
-      <c r="B424"/>
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
       <c r="C424" t="n">
         <v>2013</v>
       </c>
@@ -5891,9 +7073,11 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>109</v>
-      </c>
-      <c r="B425"/>
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
       <c r="C425" t="n">
         <v>2014</v>
       </c>
@@ -5903,9 +7087,11 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>110</v>
-      </c>
-      <c r="B426"/>
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
       <c r="C426" t="n">
         <v>2011</v>
       </c>
@@ -5915,9 +7101,11 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>110</v>
-      </c>
-      <c r="B427"/>
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
       <c r="C427" t="n">
         <v>2012</v>
       </c>
@@ -5925,9 +7113,11 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>110</v>
-      </c>
-      <c r="B428"/>
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
       <c r="C428" t="n">
         <v>2013</v>
       </c>
@@ -5937,9 +7127,11 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>110</v>
-      </c>
-      <c r="B429"/>
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
       <c r="C429" t="n">
         <v>2014</v>
       </c>
@@ -5949,9 +7141,11 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>111</v>
-      </c>
-      <c r="B430"/>
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
       <c r="C430" t="n">
         <v>2011</v>
       </c>
@@ -5961,9 +7155,11 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>111</v>
-      </c>
-      <c r="B431"/>
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
       <c r="C431" t="n">
         <v>2012</v>
       </c>
@@ -5971,9 +7167,11 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>111</v>
-      </c>
-      <c r="B432"/>
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
       <c r="C432" t="n">
         <v>2013</v>
       </c>
@@ -5983,9 +7181,11 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>111</v>
-      </c>
-      <c r="B433"/>
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
       <c r="C433" t="n">
         <v>2014</v>
       </c>
@@ -5995,9 +7195,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>112</v>
-      </c>
-      <c r="B434"/>
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
       <c r="C434" t="n">
         <v>2011</v>
       </c>
@@ -6007,9 +7209,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>112</v>
-      </c>
-      <c r="B435"/>
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
       <c r="C435" t="n">
         <v>2012</v>
       </c>
@@ -6017,9 +7221,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>112</v>
-      </c>
-      <c r="B436"/>
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
       <c r="C436" t="n">
         <v>2013</v>
       </c>
@@ -6029,9 +7235,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>112</v>
-      </c>
-      <c r="B437"/>
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
       <c r="C437" t="n">
         <v>2014</v>
       </c>
@@ -6041,9 +7249,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>113</v>
-      </c>
-      <c r="B438"/>
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
       <c r="C438" t="n">
         <v>2011</v>
       </c>
@@ -6053,9 +7263,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>113</v>
-      </c>
-      <c r="B439"/>
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
       <c r="C439" t="n">
         <v>2012</v>
       </c>
@@ -6063,9 +7275,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>113</v>
-      </c>
-      <c r="B440"/>
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
       <c r="C440" t="n">
         <v>2013</v>
       </c>
@@ -6075,9 +7289,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441"/>
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
       <c r="C441" t="n">
         <v>2014</v>
       </c>
@@ -6087,9 +7303,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442"/>
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
       <c r="C442" t="n">
         <v>2011</v>
       </c>
@@ -6099,9 +7317,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>114</v>
-      </c>
-      <c r="B443"/>
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
       <c r="C443" t="n">
         <v>2012</v>
       </c>
@@ -6109,9 +7329,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>114</v>
-      </c>
-      <c r="B444"/>
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
       <c r="C444" t="n">
         <v>2013</v>
       </c>
@@ -6121,9 +7343,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>114</v>
-      </c>
-      <c r="B445"/>
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
       <c r="C445" t="n">
         <v>2014</v>
       </c>
@@ -6133,9 +7357,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>115</v>
-      </c>
-      <c r="B446"/>
+        <v>226</v>
+      </c>
+      <c r="B446" t="s">
+        <v>227</v>
+      </c>
       <c r="C446" t="n">
         <v>2011</v>
       </c>
@@ -6145,9 +7371,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>115</v>
-      </c>
-      <c r="B447"/>
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
       <c r="C447" t="n">
         <v>2012</v>
       </c>
@@ -6155,9 +7383,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>115</v>
-      </c>
-      <c r="B448"/>
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
       <c r="C448" t="n">
         <v>2013</v>
       </c>
@@ -6167,9 +7397,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>115</v>
-      </c>
-      <c r="B449"/>
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
       <c r="C449" t="n">
         <v>2014</v>
       </c>
@@ -6196,16 +7428,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -6227,7 +7459,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>67</v>
@@ -6242,7 +7474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>86</v>
@@ -6259,7 +7491,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>61</v>
@@ -6276,7 +7508,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>60</v>
@@ -6293,7 +7525,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>69</v>
@@ -6310,7 +7542,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>75</v>
@@ -6327,7 +7559,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>67</v>
@@ -6344,7 +7576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>84</v>
@@ -6361,7 +7593,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>93</v>
@@ -6378,7 +7610,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>97</v>
@@ -6395,7 +7627,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>74</v>
@@ -6412,7 +7644,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>70</v>
@@ -6429,7 +7661,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>96</v>
@@ -6446,7 +7678,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>73</v>
@@ -6463,7 +7695,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>62</v>
@@ -6480,7 +7712,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>67</v>
@@ -6495,7 +7727,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>60</v>
@@ -6510,7 +7742,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>69</v>
@@ -6527,7 +7759,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>67</v>
@@ -6542,7 +7774,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>69</v>
@@ -6559,7 +7791,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>60</v>
@@ -6574,7 +7806,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>86</v>
@@ -6591,7 +7823,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>60</v>
@@ -6606,7 +7838,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>71</v>
@@ -6623,7 +7855,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>67</v>
@@ -6640,7 +7872,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>65</v>
@@ -6657,7 +7889,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>75</v>
@@ -6674,7 +7906,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>66</v>
@@ -6691,7 +7923,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>78</v>
@@ -6708,7 +7940,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>96</v>
@@ -6725,7 +7957,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>64</v>
@@ -6742,7 +7974,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>81</v>
@@ -6759,7 +7991,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>93</v>
@@ -6776,7 +8008,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>82</v>
@@ -6793,7 +8025,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>60</v>
@@ -6810,7 +8042,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>120</v>
@@ -6827,7 +8059,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>81</v>
@@ -6844,7 +8076,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>85</v>
@@ -6861,7 +8093,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>91</v>
@@ -6878,7 +8110,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>95</v>
@@ -6895,7 +8127,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>52</v>
@@ -6912,7 +8144,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>90</v>
@@ -6929,7 +8161,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>100</v>
@@ -6946,7 +8178,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>75</v>
@@ -6963,7 +8195,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>80</v>
@@ -6980,7 +8212,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>94</v>
@@ -6997,7 +8229,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>74</v>
@@ -7014,7 +8246,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>85</v>
@@ -7031,7 +8263,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>66</v>
@@ -7048,7 +8280,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>93</v>
@@ -7063,7 +8295,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>78</v>
@@ -7080,7 +8312,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>65</v>
@@ -7095,7 +8327,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>71</v>
@@ -7110,7 +8342,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>64</v>
@@ -7127,7 +8359,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>82</v>
@@ -7144,7 +8376,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>107</v>
@@ -7161,7 +8393,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>96</v>
@@ -7178,7 +8410,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>79</v>
@@ -7195,7 +8427,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>77</v>
@@ -7212,7 +8444,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>108</v>
@@ -7229,7 +8461,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>45</v>
@@ -7246,7 +8478,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>86</v>
@@ -7263,7 +8495,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>61</v>
@@ -7280,7 +8512,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>72</v>
@@ -7297,7 +8529,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>77</v>
@@ -7314,7 +8546,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>81</v>
@@ -7331,7 +8563,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>84</v>
@@ -7348,7 +8580,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>122</v>
@@ -7365,7 +8597,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>92</v>
@@ -7382,7 +8614,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>87</v>
@@ -7399,7 +8631,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>85</v>
@@ -7416,7 +8648,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>94</v>
@@ -7433,7 +8665,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>82</v>
@@ -7450,7 +8682,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>73</v>
@@ -7467,7 +8699,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>79</v>
@@ -7482,7 +8714,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>96</v>
@@ -7499,7 +8731,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>84</v>
@@ -7514,7 +8746,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -7527,7 +8759,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>81</v>
@@ -7544,7 +8776,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>96</v>
@@ -7559,7 +8791,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>108</v>
@@ -7576,7 +8808,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>61</v>
@@ -7591,7 +8823,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>85</v>
@@ -7606,7 +8838,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>86</v>
@@ -7621,7 +8853,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>77</v>
@@ -7636,7 +8868,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>99</v>
@@ -7653,7 +8885,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>78</v>
@@ -7670,7 +8902,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>87</v>
@@ -7687,7 +8919,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>70</v>
@@ -7704,7 +8936,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>75</v>
@@ -7721,7 +8953,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>89</v>
@@ -7738,7 +8970,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>86</v>
@@ -7755,7 +8987,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>75</v>
@@ -7772,7 +9004,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>71</v>
@@ -7789,7 +9021,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>59</v>
@@ -7806,7 +9038,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>89</v>
@@ -7823,7 +9055,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>88</v>
@@ -7840,7 +9072,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>87</v>
@@ -7855,7 +9087,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>70</v>
@@ -7872,7 +9104,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>73</v>
@@ -7889,7 +9121,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>81</v>
@@ -7906,7 +9138,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>62</v>
@@ -7923,7 +9155,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>78</v>
@@ -7940,7 +9172,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>64</v>
@@ -7957,7 +9189,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>78</v>
@@ -7972,7 +9204,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>71</v>
@@ -7987,7 +9219,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>73</v>
@@ -8002,7 +9234,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>78</v>
@@ -8017,7 +9249,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>99</v>
@@ -8032,7 +9264,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>78</v>
@@ -8047,7 +9279,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>78</v>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
@@ -1214,7 +1214,7 @@
         <v>2012</v>
       </c>
       <c r="D3" t="n">
-        <v>89.8</v>
+        <v>71.6</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         <v>2013</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1242,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1256,7 +1256,7 @@
         <v>2011</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -1270,7 +1270,7 @@
         <v>2012</v>
       </c>
       <c r="D7" t="n">
-        <v>71.1</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="8">
@@ -1283,7 +1283,9 @@
       <c r="C8" t="n">
         <v>2013</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1296,7 +1298,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>81.6</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="10">
@@ -1310,7 +1312,7 @@
         <v>2011</v>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1323,9 +1325,7 @@
       <c r="C11" t="n">
         <v>2012</v>
       </c>
-      <c r="D11" t="n">
-        <v>82.6</v>
-      </c>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1338,7 +1338,7 @@
         <v>2013</v>
       </c>
       <c r="D12" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1352,7 +1352,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>68.8</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="14">
@@ -1365,9 +1365,7 @@
       <c r="C14" t="n">
         <v>2011</v>
       </c>
-      <c r="D14" t="n">
-        <v>61</v>
-      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1379,9 +1377,7 @@
       <c r="C15" t="n">
         <v>2012</v>
       </c>
-      <c r="D15" t="n">
-        <v>61.4</v>
-      </c>
+      <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1394,7 +1390,7 @@
         <v>2013</v>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1404,7 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -1422,7 +1418,7 @@
         <v>2011</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -1436,7 +1432,7 @@
         <v>2012</v>
       </c>
       <c r="D19" t="n">
-        <v>59.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1450,7 +1446,7 @@
         <v>2013</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1464,7 +1460,7 @@
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1474,7 @@
         <v>2011</v>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -1492,7 +1488,7 @@
         <v>2012</v>
       </c>
       <c r="D23" t="n">
-        <v>76.8</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="24">
@@ -1506,7 +1502,7 @@
         <v>2013</v>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1520,7 +1516,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>83.1</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="26">
@@ -1534,7 +1530,7 @@
         <v>2011</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1544,7 @@
         <v>2012</v>
       </c>
       <c r="D27" t="n">
-        <v>71.5</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="28">
@@ -1562,7 +1558,7 @@
         <v>2013</v>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1576,7 +1572,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>66.7</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="30">
@@ -1590,7 +1586,7 @@
         <v>2011</v>
       </c>
       <c r="D30" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1600,7 @@
         <v>2012</v>
       </c>
       <c r="D31" t="n">
-        <v>69.9</v>
+        <v>89.9</v>
       </c>
     </row>
     <row r="32">
@@ -1618,7 +1614,7 @@
         <v>2013</v>
       </c>
       <c r="D32" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1628,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>70.4</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1642,7 @@
         <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -1660,7 +1656,7 @@
         <v>2012</v>
       </c>
       <c r="D35" t="n">
-        <v>57.8</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="36">
@@ -1674,7 +1670,7 @@
         <v>2013</v>
       </c>
       <c r="D36" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -1688,7 +1684,7 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>88</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="38">
@@ -1702,7 +1698,7 @@
         <v>2011</v>
       </c>
       <c r="D38" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -1716,7 +1712,7 @@
         <v>2012</v>
       </c>
       <c r="D39" t="n">
-        <v>64.5</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="40">
@@ -1744,7 +1740,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>76.4</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="42">
@@ -1758,7 +1754,7 @@
         <v>2011</v>
       </c>
       <c r="D42" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
@@ -1772,7 +1768,7 @@
         <v>2012</v>
       </c>
       <c r="D43" t="n">
-        <v>96.1</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1782,7 @@
         <v>2013</v>
       </c>
       <c r="D44" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -1800,7 +1796,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
@@ -1814,7 +1810,7 @@
         <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
@@ -1828,7 +1824,7 @@
         <v>2012</v>
       </c>
       <c r="D47" t="n">
-        <v>65.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -1842,7 +1838,7 @@
         <v>2013</v>
       </c>
       <c r="D48" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -1856,7 +1852,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>78.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -1870,7 +1866,7 @@
         <v>2011</v>
       </c>
       <c r="D50" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
@@ -1884,7 +1880,7 @@
         <v>2012</v>
       </c>
       <c r="D51" t="n">
-        <v>69.9</v>
+        <v>79.9</v>
       </c>
     </row>
     <row r="52">
@@ -1898,7 +1894,7 @@
         <v>2013</v>
       </c>
       <c r="D52" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
@@ -1912,7 +1908,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>68.3</v>
+        <v>71.9</v>
       </c>
     </row>
     <row r="54">
@@ -1926,7 +1922,7 @@
         <v>2011</v>
       </c>
       <c r="D54" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -1939,9 +1935,7 @@
       <c r="C55" t="n">
         <v>2012</v>
       </c>
-      <c r="D55" t="n">
-        <v>97.8</v>
-      </c>
+      <c r="D55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1954,7 +1948,7 @@
         <v>2013</v>
       </c>
       <c r="D56" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1962,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -1982,7 +1976,7 @@
         <v>2011</v>
       </c>
       <c r="D58" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -1995,9 +1989,7 @@
       <c r="C59" t="n">
         <v>2012</v>
       </c>
-      <c r="D59" t="n">
-        <v>62.8</v>
-      </c>
+      <c r="D59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -2010,7 +2002,7 @@
         <v>2013</v>
       </c>
       <c r="D60" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61">
@@ -2024,7 +2016,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>80.6</v>
       </c>
     </row>
     <row r="62">
@@ -2038,7 +2030,7 @@
         <v>2011</v>
       </c>
       <c r="D62" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
@@ -2052,7 +2044,7 @@
         <v>2012</v>
       </c>
       <c r="D63" t="n">
-        <v>70.9</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="64">
@@ -2066,7 +2058,7 @@
         <v>2013</v>
       </c>
       <c r="D64" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
@@ -2080,7 +2072,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>78.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -2094,7 +2086,7 @@
         <v>2011</v>
       </c>
       <c r="D66" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
@@ -2120,7 +2112,7 @@
         <v>2013</v>
       </c>
       <c r="D68" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -2134,7 +2126,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>80.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="70">
@@ -2148,7 +2140,7 @@
         <v>2011</v>
       </c>
       <c r="D70" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -2161,7 +2153,9 @@
       <c r="C71" t="n">
         <v>2012</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2174,7 +2168,7 @@
         <v>2013</v>
       </c>
       <c r="D72" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
@@ -2188,7 +2182,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -2202,7 +2196,7 @@
         <v>2011</v>
       </c>
       <c r="D74" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -2216,7 +2210,7 @@
         <v>2012</v>
       </c>
       <c r="D75" t="n">
-        <v>58.1</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="76">
@@ -2230,7 +2224,7 @@
         <v>2013</v>
       </c>
       <c r="D76" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
@@ -2244,7 +2238,7 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>91.7</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="78">
@@ -2258,7 +2252,7 @@
         <v>2011</v>
       </c>
       <c r="D78" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -2271,7 +2265,9 @@
       <c r="C79" t="n">
         <v>2012</v>
       </c>
-      <c r="D79"/>
+      <c r="D79" t="n">
+        <v>92.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2284,7 +2280,7 @@
         <v>2013</v>
       </c>
       <c r="D80" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
@@ -2298,7 +2294,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82">
@@ -2312,7 +2308,7 @@
         <v>2011</v>
       </c>
       <c r="D82" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
@@ -2326,7 +2322,7 @@
         <v>2012</v>
       </c>
       <c r="D83" t="n">
-        <v>61.9</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="84">
@@ -2340,7 +2336,7 @@
         <v>2013</v>
       </c>
       <c r="D84" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -2354,7 +2350,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>81.8</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
@@ -2368,7 +2364,7 @@
         <v>2011</v>
       </c>
       <c r="D86" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -2381,7 +2377,9 @@
       <c r="C87" t="n">
         <v>2012</v>
       </c>
-      <c r="D87"/>
+      <c r="D87" t="n">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2408,7 +2406,7 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>91.3</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="90">
@@ -2422,7 +2420,7 @@
         <v>2011</v>
       </c>
       <c r="D90" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91">
@@ -2436,7 +2434,7 @@
         <v>2012</v>
       </c>
       <c r="D91" t="n">
-        <v>76.2</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="92">
@@ -2450,7 +2448,7 @@
         <v>2013</v>
       </c>
       <c r="D92" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
@@ -2464,7 +2462,7 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>85.7</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="94">
@@ -2478,7 +2476,7 @@
         <v>2011</v>
       </c>
       <c r="D94" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -2491,7 +2489,9 @@
       <c r="C95" t="n">
         <v>2012</v>
       </c>
-      <c r="D95"/>
+      <c r="D95" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -2504,7 +2504,7 @@
         <v>2013</v>
       </c>
       <c r="D96" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
@@ -2518,7 +2518,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="98">
@@ -2532,7 +2532,7 @@
         <v>2011</v>
       </c>
       <c r="D98" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99">
@@ -2546,7 +2546,7 @@
         <v>2012</v>
       </c>
       <c r="D99" t="n">
-        <v>79.9</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="100">
@@ -2560,7 +2560,7 @@
         <v>2013</v>
       </c>
       <c r="D100" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
@@ -2574,7 +2574,7 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>71.9</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="102">
@@ -2601,9 +2601,7 @@
       <c r="C103" t="n">
         <v>2012</v>
       </c>
-      <c r="D103" t="n">
-        <v>77.6</v>
-      </c>
+      <c r="D103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2616,7 +2614,7 @@
         <v>2013</v>
       </c>
       <c r="D104" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
@@ -2630,7 +2628,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>83.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2644,7 +2642,7 @@
         <v>2011</v>
       </c>
       <c r="D106" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
@@ -2658,7 +2656,7 @@
         <v>2012</v>
       </c>
       <c r="D107" t="n">
-        <v>87.9</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="108">
@@ -2672,7 +2670,7 @@
         <v>2013</v>
       </c>
       <c r="D108" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
@@ -2686,7 +2684,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>86.7</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="110">
@@ -2700,7 +2698,7 @@
         <v>2011</v>
       </c>
       <c r="D110" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111">
@@ -2714,7 +2712,7 @@
         <v>2012</v>
       </c>
       <c r="D111" t="n">
-        <v>66.7</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="112">
@@ -2728,7 +2726,7 @@
         <v>2013</v>
       </c>
       <c r="D112" t="n">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
@@ -2742,7 +2740,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>65.8</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="114">
@@ -2756,7 +2754,7 @@
         <v>2011</v>
       </c>
       <c r="D114" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2768,7 @@
         <v>2012</v>
       </c>
       <c r="D115" t="n">
-        <v>84.4</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="116">
@@ -2784,7 +2782,7 @@
         <v>2013</v>
       </c>
       <c r="D116" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117">
@@ -2798,7 +2796,7 @@
         <v>2014</v>
       </c>
       <c r="D117" t="n">
-        <v>84.1</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="118">
@@ -2812,7 +2810,7 @@
         <v>2011</v>
       </c>
       <c r="D118" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
@@ -2826,7 +2824,7 @@
         <v>2012</v>
       </c>
       <c r="D119" t="n">
-        <v>88.9</v>
+        <v>86.1</v>
       </c>
     </row>
     <row r="120">
@@ -2840,7 +2838,7 @@
         <v>2013</v>
       </c>
       <c r="D120" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121">
@@ -2854,7 +2852,7 @@
         <v>2014</v>
       </c>
       <c r="D121" t="n">
-        <v>94.4</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="122">
@@ -2868,7 +2866,7 @@
         <v>2011</v>
       </c>
       <c r="D122" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123">
@@ -2882,7 +2880,7 @@
         <v>2012</v>
       </c>
       <c r="D123" t="n">
-        <v>96.8</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="124">
@@ -2896,7 +2894,7 @@
         <v>2013</v>
       </c>
       <c r="D124" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125">
@@ -2910,7 +2908,7 @@
         <v>2014</v>
       </c>
       <c r="D125" t="n">
-        <v>59.1</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="126">
@@ -2924,7 +2922,7 @@
         <v>2011</v>
       </c>
       <c r="D126" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127">
@@ -2938,7 +2936,7 @@
         <v>2012</v>
       </c>
       <c r="D127" t="n">
-        <v>83.5</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="128">
@@ -2952,7 +2950,7 @@
         <v>2013</v>
       </c>
       <c r="D128" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129">
@@ -2966,7 +2964,7 @@
         <v>2014</v>
       </c>
       <c r="D129" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
@@ -2980,7 +2978,7 @@
         <v>2011</v>
       </c>
       <c r="D130" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131">
@@ -2994,7 +2992,7 @@
         <v>2012</v>
       </c>
       <c r="D131" t="n">
-        <v>75.8</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="132">
@@ -3008,7 +3006,7 @@
         <v>2013</v>
       </c>
       <c r="D132" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133">
@@ -3022,7 +3020,7 @@
         <v>2014</v>
       </c>
       <c r="D133" t="n">
-        <v>72.1</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="134">
@@ -3036,7 +3034,7 @@
         <v>2011</v>
       </c>
       <c r="D134" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
@@ -3050,7 +3048,7 @@
         <v>2012</v>
       </c>
       <c r="D135" t="n">
-        <v>97.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="136">
@@ -3064,7 +3062,7 @@
         <v>2013</v>
       </c>
       <c r="D136" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137">
@@ -3078,7 +3076,7 @@
         <v>2014</v>
       </c>
       <c r="D137" t="n">
-        <v>96.3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
@@ -3092,7 +3090,7 @@
         <v>2011</v>
       </c>
       <c r="D138" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
@@ -3106,7 +3104,7 @@
         <v>2012</v>
       </c>
       <c r="D139" t="n">
-        <v>80.6</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="140">
@@ -3120,7 +3118,7 @@
         <v>2013</v>
       </c>
       <c r="D140" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141">
@@ -3134,7 +3132,7 @@
         <v>2014</v>
       </c>
       <c r="D141" t="n">
-        <v>46.9</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="142">
@@ -3148,7 +3146,7 @@
         <v>2011</v>
       </c>
       <c r="D142" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143">
@@ -3162,7 +3160,7 @@
         <v>2012</v>
       </c>
       <c r="D143" t="n">
-        <v>26.7</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="144">
@@ -3176,7 +3174,7 @@
         <v>2013</v>
       </c>
       <c r="D144" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145">
@@ -3190,7 +3188,7 @@
         <v>2014</v>
       </c>
       <c r="D145" t="n">
-        <v>39.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146">
@@ -3204,7 +3202,7 @@
         <v>2011</v>
       </c>
       <c r="D146" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147">
@@ -3218,7 +3216,7 @@
         <v>2012</v>
       </c>
       <c r="D147" t="n">
-        <v>83.9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148">
@@ -3232,7 +3230,7 @@
         <v>2013</v>
       </c>
       <c r="D148" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149">
@@ -3246,7 +3244,7 @@
         <v>2014</v>
       </c>
       <c r="D149" t="n">
-        <v>88.9</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="150">
@@ -3260,7 +3258,7 @@
         <v>2011</v>
       </c>
       <c r="D150" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151">
@@ -3274,7 +3272,7 @@
         <v>2012</v>
       </c>
       <c r="D151" t="n">
-        <v>84.4</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="152">
@@ -3288,7 +3286,7 @@
         <v>2013</v>
       </c>
       <c r="D152" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153">
@@ -3302,7 +3300,7 @@
         <v>2014</v>
       </c>
       <c r="D153" t="n">
-        <v>88.6</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="154">
@@ -3316,7 +3314,7 @@
         <v>2011</v>
       </c>
       <c r="D154" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
@@ -3330,7 +3328,7 @@
         <v>2012</v>
       </c>
       <c r="D155" t="n">
-        <v>84.9</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="156">
@@ -3344,7 +3342,7 @@
         <v>2013</v>
       </c>
       <c r="D156" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157">
@@ -3358,7 +3356,7 @@
         <v>2014</v>
       </c>
       <c r="D157" t="n">
-        <v>89.6</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="158">
@@ -3372,7 +3370,7 @@
         <v>2011</v>
       </c>
       <c r="D158" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159">
@@ -3386,7 +3384,7 @@
         <v>2012</v>
       </c>
       <c r="D159" t="n">
-        <v>96.8</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="160">
@@ -3400,7 +3398,7 @@
         <v>2013</v>
       </c>
       <c r="D160" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161">
@@ -3414,7 +3412,7 @@
         <v>2014</v>
       </c>
       <c r="D161" t="n">
-        <v>96.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162">
@@ -3428,7 +3426,7 @@
         <v>2011</v>
       </c>
       <c r="D162" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163">
@@ -3442,7 +3440,7 @@
         <v>2012</v>
       </c>
       <c r="D163" t="n">
-        <v>94.8</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="164">
@@ -3456,7 +3454,7 @@
         <v>2013</v>
       </c>
       <c r="D164" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165">
@@ -3470,7 +3468,7 @@
         <v>2014</v>
       </c>
       <c r="D165" t="n">
-        <v>95</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="166">
@@ -3484,7 +3482,7 @@
         <v>2011</v>
       </c>
       <c r="D166" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167">
@@ -3497,9 +3495,7 @@
       <c r="C167" t="n">
         <v>2012</v>
       </c>
-      <c r="D167" t="n">
-        <v>56</v>
-      </c>
+      <c r="D167"/>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -3512,7 +3508,7 @@
         <v>2013</v>
       </c>
       <c r="D168" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
@@ -3526,7 +3522,7 @@
         <v>2014</v>
       </c>
       <c r="D169" t="n">
-        <v>70</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="170">
@@ -3540,7 +3536,7 @@
         <v>2011</v>
       </c>
       <c r="D170" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171">
@@ -3554,7 +3550,7 @@
         <v>2012</v>
       </c>
       <c r="D171" t="n">
-        <v>95.6</v>
+        <v>71.1</v>
       </c>
     </row>
     <row r="172">
@@ -3567,9 +3563,7 @@
       <c r="C172" t="n">
         <v>2013</v>
       </c>
-      <c r="D172" t="n">
-        <v>93</v>
-      </c>
+      <c r="D172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -3582,7 +3576,7 @@
         <v>2014</v>
       </c>
       <c r="D173" t="n">
-        <v>100</v>
+        <v>81.6</v>
       </c>
     </row>
     <row r="174">
@@ -3596,7 +3590,7 @@
         <v>2011</v>
       </c>
       <c r="D174" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175">
@@ -3610,7 +3604,7 @@
         <v>2012</v>
       </c>
       <c r="D175" t="n">
-        <v>100</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="176">
@@ -3624,7 +3618,7 @@
         <v>2013</v>
       </c>
       <c r="D176" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177">
@@ -3638,7 +3632,7 @@
         <v>2014</v>
       </c>
       <c r="D177" t="n">
-        <v>100</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="178">
@@ -3652,7 +3646,7 @@
         <v>2011</v>
       </c>
       <c r="D178" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179">
@@ -3665,9 +3659,7 @@
       <c r="C179" t="n">
         <v>2012</v>
       </c>
-      <c r="D179" t="n">
-        <v>82</v>
-      </c>
+      <c r="D179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -3680,7 +3672,7 @@
         <v>2013</v>
       </c>
       <c r="D180" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181">
@@ -3694,7 +3686,7 @@
         <v>2014</v>
       </c>
       <c r="D181" t="n">
-        <v>93.8</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="182">
@@ -3708,7 +3700,7 @@
         <v>2011</v>
       </c>
       <c r="D182" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183">
@@ -3722,7 +3714,7 @@
         <v>2012</v>
       </c>
       <c r="D183" t="n">
-        <v>83.1</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="184">
@@ -3736,7 +3728,7 @@
         <v>2013</v>
       </c>
       <c r="D184" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185">
@@ -3750,7 +3742,7 @@
         <v>2014</v>
       </c>
       <c r="D185" t="n">
-        <v>90.5</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="186">
@@ -3764,7 +3756,7 @@
         <v>2011</v>
       </c>
       <c r="D186" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187">
@@ -3778,7 +3770,7 @@
         <v>2012</v>
       </c>
       <c r="D187" t="n">
-        <v>94.9</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="188">
@@ -3792,7 +3784,7 @@
         <v>2013</v>
       </c>
       <c r="D188" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189">
@@ -3806,7 +3798,7 @@
         <v>2014</v>
       </c>
       <c r="D189" t="n">
-        <v>96</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="190">
@@ -3820,7 +3812,7 @@
         <v>2011</v>
       </c>
       <c r="D190" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191">
@@ -3834,7 +3826,7 @@
         <v>2012</v>
       </c>
       <c r="D191" t="n">
-        <v>84.2</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="192">
@@ -3848,7 +3840,7 @@
         <v>2013</v>
       </c>
       <c r="D192" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193">
@@ -3862,7 +3854,7 @@
         <v>2014</v>
       </c>
       <c r="D193" t="n">
-        <v>90</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="194">
@@ -3876,7 +3868,7 @@
         <v>2011</v>
       </c>
       <c r="D194" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195">
@@ -3890,7 +3882,7 @@
         <v>2012</v>
       </c>
       <c r="D195" t="n">
-        <v>76.1</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="196">
@@ -3904,7 +3896,7 @@
         <v>2013</v>
       </c>
       <c r="D196" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197">
@@ -3918,7 +3910,7 @@
         <v>2014</v>
       </c>
       <c r="D197" t="n">
-        <v>82.6</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="198">
@@ -3932,7 +3924,7 @@
         <v>2011</v>
       </c>
       <c r="D198" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199">
@@ -3946,7 +3938,7 @@
         <v>2012</v>
       </c>
       <c r="D199" t="n">
-        <v>85.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="200">
@@ -3960,7 +3952,7 @@
         <v>2013</v>
       </c>
       <c r="D200" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201">
@@ -3974,7 +3966,7 @@
         <v>2014</v>
       </c>
       <c r="D201" t="n">
-        <v>70.6</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="202">
@@ -3988,7 +3980,7 @@
         <v>2011</v>
       </c>
       <c r="D202" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203">
@@ -4001,7 +3993,9 @@
       <c r="C203" t="n">
         <v>2012</v>
       </c>
-      <c r="D203"/>
+      <c r="D203" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -4014,7 +4008,7 @@
         <v>2013</v>
       </c>
       <c r="D204" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205">
@@ -4028,7 +4022,7 @@
         <v>2014</v>
       </c>
       <c r="D205" t="n">
-        <v>84.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="206">
@@ -4042,7 +4036,7 @@
         <v>2011</v>
       </c>
       <c r="D206" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207">
@@ -4056,7 +4050,7 @@
         <v>2012</v>
       </c>
       <c r="D207" t="n">
-        <v>157.1</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="208">
@@ -4070,7 +4064,7 @@
         <v>2013</v>
       </c>
       <c r="D208" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="209">
@@ -4084,7 +4078,7 @@
         <v>2014</v>
       </c>
       <c r="D209" t="n">
-        <v>100</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="210">
@@ -4098,7 +4092,7 @@
         <v>2011</v>
       </c>
       <c r="D210" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211">
@@ -4124,7 +4118,7 @@
         <v>2013</v>
       </c>
       <c r="D212" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213">
@@ -4138,7 +4132,7 @@
         <v>2014</v>
       </c>
       <c r="D213" t="n">
-        <v>80</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="214">
@@ -4152,7 +4146,7 @@
         <v>2011</v>
       </c>
       <c r="D214" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="215">
@@ -4165,7 +4159,9 @@
       <c r="C215" t="n">
         <v>2012</v>
       </c>
-      <c r="D215"/>
+      <c r="D215" t="n">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -4178,7 +4174,7 @@
         <v>2013</v>
       </c>
       <c r="D216" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217">
@@ -4192,7 +4188,7 @@
         <v>2014</v>
       </c>
       <c r="D217" t="n">
-        <v>84.8</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="218">
@@ -4206,7 +4202,7 @@
         <v>2011</v>
       </c>
       <c r="D218" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219">
@@ -4219,9 +4215,7 @@
       <c r="C219" t="n">
         <v>2012</v>
       </c>
-      <c r="D219" t="n">
-        <v>41.7</v>
-      </c>
+      <c r="D219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -4234,7 +4228,7 @@
         <v>2013</v>
       </c>
       <c r="D220" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221">
@@ -4248,7 +4242,7 @@
         <v>2014</v>
       </c>
       <c r="D221" t="n">
-        <v>80</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="222">
@@ -4262,7 +4256,7 @@
         <v>2011</v>
       </c>
       <c r="D222" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223">
@@ -4276,7 +4270,7 @@
         <v>2012</v>
       </c>
       <c r="D223" t="n">
-        <v>93.2</v>
+        <v>71.6</v>
       </c>
     </row>
     <row r="224">
@@ -4290,7 +4284,7 @@
         <v>2013</v>
       </c>
       <c r="D224" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225">
@@ -4304,7 +4298,7 @@
         <v>2014</v>
       </c>
       <c r="D225" t="n">
-        <v>92.9</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="226">
@@ -4318,7 +4312,7 @@
         <v>2011</v>
       </c>
       <c r="D226" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227">
@@ -4332,7 +4326,7 @@
         <v>2012</v>
       </c>
       <c r="D227" t="n">
-        <v>65.5</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="228">
@@ -4346,7 +4340,7 @@
         <v>2013</v>
       </c>
       <c r="D228" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229">
@@ -4360,7 +4354,7 @@
         <v>2014</v>
       </c>
       <c r="D229" t="n">
-        <v>78.4</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="230">
@@ -4374,7 +4368,7 @@
         <v>2011</v>
       </c>
       <c r="D230" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231">
@@ -4388,7 +4382,7 @@
         <v>2012</v>
       </c>
       <c r="D231" t="n">
-        <v>95.3</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="232">
@@ -4402,7 +4396,7 @@
         <v>2013</v>
       </c>
       <c r="D232" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233">
@@ -4416,7 +4410,7 @@
         <v>2014</v>
       </c>
       <c r="D233" t="n">
-        <v>93.2</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="234">
@@ -4430,7 +4424,7 @@
         <v>2011</v>
       </c>
       <c r="D234" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="235">
@@ -4443,9 +4437,7 @@
       <c r="C235" t="n">
         <v>2012</v>
       </c>
-      <c r="D235" t="n">
-        <v>63.3</v>
-      </c>
+      <c r="D235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -4458,7 +4450,7 @@
         <v>2013</v>
       </c>
       <c r="D236" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="237">
@@ -4472,7 +4464,7 @@
         <v>2014</v>
       </c>
       <c r="D237" t="n">
-        <v>46.8</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4478,7 @@
         <v>2011</v>
       </c>
       <c r="D238" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239">
@@ -4500,7 +4492,7 @@
         <v>2012</v>
       </c>
       <c r="D239" t="n">
-        <v>86.1</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="240">
@@ -4514,7 +4506,7 @@
         <v>2013</v>
       </c>
       <c r="D240" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241">
@@ -4528,7 +4520,7 @@
         <v>2014</v>
       </c>
       <c r="D241" t="n">
-        <v>93.8</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="242">
@@ -4542,7 +4534,7 @@
         <v>2011</v>
       </c>
       <c r="D242" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="243">
@@ -4556,7 +4548,7 @@
         <v>2012</v>
       </c>
       <c r="D243" t="n">
-        <v>75.7</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="244">
@@ -4570,7 +4562,7 @@
         <v>2013</v>
       </c>
       <c r="D244" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="245">
@@ -4584,7 +4576,7 @@
         <v>2014</v>
       </c>
       <c r="D245" t="n">
-        <v>74.5</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="246">
@@ -4598,7 +4590,7 @@
         <v>2011</v>
       </c>
       <c r="D246" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247">
@@ -4612,7 +4604,7 @@
         <v>2012</v>
       </c>
       <c r="D247" t="n">
-        <v>54.8</v>
+        <v>157.1</v>
       </c>
     </row>
     <row r="248">
@@ -4626,7 +4618,7 @@
         <v>2013</v>
       </c>
       <c r="D248" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="249">
@@ -4640,7 +4632,7 @@
         <v>2014</v>
       </c>
       <c r="D249" t="n">
-        <v>61.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250">
@@ -4668,7 +4660,7 @@
         <v>2012</v>
       </c>
       <c r="D251" t="n">
-        <v>84.6</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="252">
@@ -4682,7 +4674,7 @@
         <v>2013</v>
       </c>
       <c r="D252" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="253">
@@ -4696,7 +4688,7 @@
         <v>2014</v>
       </c>
       <c r="D253" t="n">
-        <v>85</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="254">
@@ -4710,7 +4702,7 @@
         <v>2011</v>
       </c>
       <c r="D254" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255">
@@ -4723,9 +4715,7 @@
       <c r="C255" t="n">
         <v>2012</v>
       </c>
-      <c r="D255" t="n">
-        <v>64.4</v>
-      </c>
+      <c r="D255"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -4738,7 +4728,7 @@
         <v>2013</v>
       </c>
       <c r="D256" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257">
@@ -4752,7 +4742,7 @@
         <v>2014</v>
       </c>
       <c r="D257" t="n">
-        <v>65.2</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="258">
@@ -4766,7 +4756,7 @@
         <v>2011</v>
       </c>
       <c r="D258" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259">
@@ -4780,7 +4770,7 @@
         <v>2012</v>
       </c>
       <c r="D259" t="n">
-        <v>74.1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260">
@@ -4794,7 +4784,7 @@
         <v>2013</v>
       </c>
       <c r="D260" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261">
@@ -4808,7 +4798,7 @@
         <v>2014</v>
       </c>
       <c r="D261" t="n">
-        <v>69.6</v>
+        <v>72.6</v>
       </c>
     </row>
     <row r="262">
@@ -4822,7 +4812,7 @@
         <v>2011</v>
       </c>
       <c r="D262" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="263">
@@ -4836,7 +4826,7 @@
         <v>2012</v>
       </c>
       <c r="D263" t="n">
-        <v>72.4</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="264">
@@ -4850,7 +4840,7 @@
         <v>2013</v>
       </c>
       <c r="D264" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265">
@@ -4864,7 +4854,7 @@
         <v>2014</v>
       </c>
       <c r="D265" t="n">
-        <v>61.8</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="266">
@@ -4878,7 +4868,7 @@
         <v>2011</v>
       </c>
       <c r="D266" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267">
@@ -4892,7 +4882,7 @@
         <v>2012</v>
       </c>
       <c r="D267" t="n">
-        <v>81.7</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="268">
@@ -4920,7 +4910,7 @@
         <v>2014</v>
       </c>
       <c r="D269" t="n">
-        <v>76.9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270">
@@ -4934,7 +4924,7 @@
         <v>2011</v>
       </c>
       <c r="D270" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271">
@@ -4947,9 +4937,7 @@
       <c r="C271" t="n">
         <v>2012</v>
       </c>
-      <c r="D271" t="n">
-        <v>84</v>
-      </c>
+      <c r="D271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -4962,7 +4950,7 @@
         <v>2013</v>
       </c>
       <c r="D272" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273">
@@ -4976,7 +4964,7 @@
         <v>2014</v>
       </c>
       <c r="D273" t="n">
-        <v>47.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274">
@@ -4990,7 +4978,7 @@
         <v>2011</v>
       </c>
       <c r="D274" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275">
@@ -5004,7 +4992,7 @@
         <v>2012</v>
       </c>
       <c r="D275" t="n">
-        <v>75.7</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="276">
@@ -5018,7 +5006,7 @@
         <v>2013</v>
       </c>
       <c r="D276" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277">
@@ -5032,7 +5020,7 @@
         <v>2014</v>
       </c>
       <c r="D277" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278">
@@ -5046,7 +5034,7 @@
         <v>2011</v>
       </c>
       <c r="D278" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279">
@@ -5059,9 +5047,7 @@
       <c r="C279" t="n">
         <v>2012</v>
       </c>
-      <c r="D279" t="n">
-        <v>71.6</v>
-      </c>
+      <c r="D279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -5074,7 +5060,7 @@
         <v>2013</v>
       </c>
       <c r="D280" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="281">
@@ -5088,7 +5074,7 @@
         <v>2014</v>
       </c>
       <c r="D281" t="n">
-        <v>50</v>
+        <v>93.9</v>
       </c>
     </row>
     <row r="282">
@@ -5102,7 +5088,7 @@
         <v>2011</v>
       </c>
       <c r="D282" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283">
@@ -5116,7 +5102,7 @@
         <v>2012</v>
       </c>
       <c r="D283" t="n">
-        <v>80</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="284">
@@ -5130,7 +5116,7 @@
         <v>2013</v>
       </c>
       <c r="D284" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285">
@@ -5144,7 +5130,7 @@
         <v>2014</v>
       </c>
       <c r="D285" t="n">
-        <v>84.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
@@ -5158,7 +5144,7 @@
         <v>2011</v>
       </c>
       <c r="D286" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287">
@@ -5172,7 +5158,7 @@
         <v>2012</v>
       </c>
       <c r="D287" t="n">
-        <v>89.9</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="288">
@@ -5186,7 +5172,7 @@
         <v>2013</v>
       </c>
       <c r="D288" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289">
@@ -5200,7 +5186,7 @@
         <v>2014</v>
       </c>
       <c r="D289" t="n">
-        <v>90.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290">
@@ -5214,7 +5200,7 @@
         <v>2011</v>
       </c>
       <c r="D290" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="291">
@@ -5227,9 +5213,7 @@
       <c r="C291" t="n">
         <v>2012</v>
       </c>
-      <c r="D291" t="n">
-        <v>92.3</v>
-      </c>
+      <c r="D291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -5242,7 +5226,7 @@
         <v>2013</v>
       </c>
       <c r="D292" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="293">
@@ -5256,7 +5240,7 @@
         <v>2014</v>
       </c>
       <c r="D293" t="n">
-        <v>97.8</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="294">
@@ -5270,7 +5254,7 @@
         <v>2011</v>
       </c>
       <c r="D294" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295">
@@ -5284,7 +5268,7 @@
         <v>2012</v>
       </c>
       <c r="D295" t="n">
-        <v>83.6</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="296">
@@ -5298,7 +5282,7 @@
         <v>2013</v>
       </c>
       <c r="D296" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297">
@@ -5312,7 +5296,7 @@
         <v>2014</v>
       </c>
       <c r="D297" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="298">
@@ -5326,7 +5310,7 @@
         <v>2011</v>
       </c>
       <c r="D298" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299">
@@ -5340,7 +5324,7 @@
         <v>2012</v>
       </c>
       <c r="D299" t="n">
-        <v>64.4</v>
+        <v>71.9</v>
       </c>
     </row>
     <row r="300">
@@ -5354,7 +5338,7 @@
         <v>2013</v>
       </c>
       <c r="D300" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="301">
@@ -5368,7 +5352,7 @@
         <v>2014</v>
       </c>
       <c r="D301" t="n">
-        <v>44.8</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="302">
@@ -5382,7 +5366,7 @@
         <v>2011</v>
       </c>
       <c r="D302" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303">
@@ -5395,7 +5379,9 @@
       <c r="C303" t="n">
         <v>2012</v>
       </c>
-      <c r="D303"/>
+      <c r="D303" t="n">
+        <v>84.4</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -5408,7 +5394,7 @@
         <v>2013</v>
       </c>
       <c r="D304" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305">
@@ -5422,7 +5408,7 @@
         <v>2014</v>
       </c>
       <c r="D305" t="n">
-        <v>69.2</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="306">
@@ -5436,7 +5422,7 @@
         <v>2011</v>
       </c>
       <c r="D306" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="307">
@@ -5450,7 +5436,7 @@
         <v>2012</v>
       </c>
       <c r="D307" t="n">
-        <v>94.5</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="308">
@@ -5464,7 +5450,7 @@
         <v>2013</v>
       </c>
       <c r="D308" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309">
@@ -5478,7 +5464,7 @@
         <v>2014</v>
       </c>
       <c r="D309" t="n">
-        <v>91</v>
+        <v>72.1</v>
       </c>
     </row>
     <row r="310">
@@ -5492,7 +5478,7 @@
         <v>2011</v>
       </c>
       <c r="D310" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311">
@@ -5505,7 +5491,9 @@
       <c r="C311" t="n">
         <v>2012</v>
       </c>
-      <c r="D311"/>
+      <c r="D311" t="n">
+        <v>74.9</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -5518,7 +5506,7 @@
         <v>2013</v>
       </c>
       <c r="D312" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="313">
@@ -5532,7 +5520,7 @@
         <v>2014</v>
       </c>
       <c r="D313" t="n">
-        <v>49.1</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="314">
@@ -5545,7 +5533,9 @@
       <c r="C314" t="n">
         <v>2011</v>
       </c>
-      <c r="D314"/>
+      <c r="D314" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -5570,7 +5560,7 @@
         <v>2013</v>
       </c>
       <c r="D316" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="317">
@@ -5584,7 +5574,7 @@
         <v>2014</v>
       </c>
       <c r="D317" t="n">
-        <v>84</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="318">
@@ -5598,7 +5588,7 @@
         <v>2011</v>
       </c>
       <c r="D318" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5602,7 @@
         <v>2012</v>
       </c>
       <c r="D319" t="n">
-        <v>57.7</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="320">
@@ -5626,7 +5616,7 @@
         <v>2013</v>
       </c>
       <c r="D320" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="321">
@@ -5640,7 +5630,7 @@
         <v>2014</v>
       </c>
       <c r="D321" t="n">
-        <v>62.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="322">
@@ -5654,7 +5644,7 @@
         <v>2011</v>
       </c>
       <c r="D322" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323">
@@ -5667,7 +5657,9 @@
       <c r="C323" t="n">
         <v>2012</v>
       </c>
-      <c r="D323"/>
+      <c r="D323" t="n">
+        <v>64.4</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -5680,7 +5672,7 @@
         <v>2013</v>
       </c>
       <c r="D324" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="325">
@@ -5694,7 +5686,7 @@
         <v>2014</v>
       </c>
       <c r="D325" t="n">
-        <v>94.1</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="326">
@@ -5708,7 +5700,7 @@
         <v>2011</v>
       </c>
       <c r="D326" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327">
@@ -5722,7 +5714,7 @@
         <v>2012</v>
       </c>
       <c r="D327" t="n">
-        <v>70.8</v>
+        <v>74.1</v>
       </c>
     </row>
     <row r="328">
@@ -5736,7 +5728,7 @@
         <v>2013</v>
       </c>
       <c r="D328" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="329">
@@ -5750,7 +5742,7 @@
         <v>2014</v>
       </c>
       <c r="D329" t="n">
-        <v>86.7</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="330">
@@ -5764,7 +5756,7 @@
         <v>2011</v>
       </c>
       <c r="D330" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="331">
@@ -5777,7 +5769,9 @@
       <c r="C331" t="n">
         <v>2012</v>
       </c>
-      <c r="D331"/>
+      <c r="D331" t="n">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -5790,7 +5784,7 @@
         <v>2013</v>
       </c>
       <c r="D332" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333">
@@ -5804,7 +5798,7 @@
         <v>2014</v>
       </c>
       <c r="D333" t="n">
-        <v>63.6</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="334">
@@ -5818,7 +5812,7 @@
         <v>2011</v>
       </c>
       <c r="D334" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335">
@@ -5831,7 +5825,9 @@
       <c r="C335" t="n">
         <v>2012</v>
       </c>
-      <c r="D335"/>
+      <c r="D335" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -5844,7 +5840,7 @@
         <v>2013</v>
       </c>
       <c r="D336" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="337">
@@ -5858,7 +5854,7 @@
         <v>2014</v>
       </c>
       <c r="D337" t="n">
-        <v>90</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="338">
@@ -5872,7 +5868,7 @@
         <v>2011</v>
       </c>
       <c r="D338" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="339">
@@ -5885,7 +5881,9 @@
       <c r="C339" t="n">
         <v>2012</v>
       </c>
-      <c r="D339"/>
+      <c r="D339" t="n">
+        <v>69.9</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -5898,7 +5896,7 @@
         <v>2013</v>
       </c>
       <c r="D340" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="341">
@@ -5912,7 +5910,7 @@
         <v>2014</v>
       </c>
       <c r="D341" t="n">
-        <v>79.3</v>
+        <v>70.4</v>
       </c>
     </row>
     <row r="342">
@@ -5926,7 +5924,7 @@
         <v>2011</v>
       </c>
       <c r="D342" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="343">
@@ -5939,7 +5937,9 @@
       <c r="C343" t="n">
         <v>2012</v>
       </c>
-      <c r="D343"/>
+      <c r="D343" t="n">
+        <v>81.7</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -5952,7 +5952,7 @@
         <v>2013</v>
       </c>
       <c r="D344" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="345">
@@ -5966,7 +5966,7 @@
         <v>2014</v>
       </c>
       <c r="D345" t="n">
-        <v>77.1</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="346">
@@ -5980,7 +5980,7 @@
         <v>2011</v>
       </c>
       <c r="D346" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="347">
@@ -5994,7 +5994,7 @@
         <v>2012</v>
       </c>
       <c r="D347" t="n">
-        <v>89.7</v>
+        <v>70.9</v>
       </c>
     </row>
     <row r="348">
@@ -6008,7 +6008,7 @@
         <v>2013</v>
       </c>
       <c r="D348" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="349">
@@ -6022,7 +6022,7 @@
         <v>2014</v>
       </c>
       <c r="D349" t="n">
-        <v>82.1</v>
+        <v>78.1</v>
       </c>
     </row>
     <row r="350">
@@ -6036,7 +6036,7 @@
         <v>2011</v>
       </c>
       <c r="D350" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="351">
@@ -6050,7 +6050,7 @@
         <v>2012</v>
       </c>
       <c r="D351" t="n">
-        <v>31.8</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="352">
@@ -6064,7 +6064,7 @@
         <v>2013</v>
       </c>
       <c r="D352" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="353">
@@ -6078,7 +6078,7 @@
         <v>2014</v>
       </c>
       <c r="D353" t="n">
-        <v>69.2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="354">
@@ -6092,7 +6092,7 @@
         <v>2011</v>
       </c>
       <c r="D354" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="355">
@@ -6105,9 +6105,7 @@
       <c r="C355" t="n">
         <v>2012</v>
       </c>
-      <c r="D355" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="D355"/>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -6120,7 +6118,7 @@
         <v>2013</v>
       </c>
       <c r="D356" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="357">
@@ -6134,7 +6132,7 @@
         <v>2014</v>
       </c>
       <c r="D357" t="n">
-        <v>75.9</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="358">
@@ -6148,7 +6146,7 @@
         <v>2011</v>
       </c>
       <c r="D358" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="359">
@@ -6162,7 +6160,7 @@
         <v>2012</v>
       </c>
       <c r="D359" t="n">
-        <v>73</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="360">
@@ -6176,7 +6174,7 @@
         <v>2013</v>
       </c>
       <c r="D360" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="361">
@@ -6190,7 +6188,7 @@
         <v>2014</v>
       </c>
       <c r="D361" t="n">
-        <v>85.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="362">
@@ -6204,7 +6202,7 @@
         <v>2011</v>
       </c>
       <c r="D362" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="363">
@@ -6217,9 +6215,7 @@
       <c r="C363" t="n">
         <v>2012</v>
       </c>
-      <c r="D363" t="n">
-        <v>74.3</v>
-      </c>
+      <c r="D363"/>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -6232,7 +6228,7 @@
         <v>2013</v>
       </c>
       <c r="D364" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="365">
@@ -6246,7 +6242,7 @@
         <v>2014</v>
       </c>
       <c r="D365" t="n">
-        <v>87.2</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="366">
@@ -6260,7 +6256,7 @@
         <v>2011</v>
       </c>
       <c r="D366" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367">
@@ -6274,7 +6270,7 @@
         <v>2012</v>
       </c>
       <c r="D367" t="n">
-        <v>93.6</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="368">
@@ -6288,7 +6284,7 @@
         <v>2013</v>
       </c>
       <c r="D368" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="369">
@@ -6302,7 +6298,7 @@
         <v>2014</v>
       </c>
       <c r="D369" t="n">
-        <v>95.9</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="370">
@@ -6316,7 +6312,7 @@
         <v>2011</v>
       </c>
       <c r="D370" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="371">
@@ -6330,7 +6326,7 @@
         <v>2012</v>
       </c>
       <c r="D371" t="n">
-        <v>86.2</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="372">
@@ -6344,7 +6340,7 @@
         <v>2013</v>
       </c>
       <c r="D372" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="373">
@@ -6358,7 +6354,7 @@
         <v>2014</v>
       </c>
       <c r="D373" t="n">
-        <v>85.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="374">
@@ -6372,7 +6368,7 @@
         <v>2011</v>
       </c>
       <c r="D374" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375">
@@ -6385,9 +6381,7 @@
       <c r="C375" t="n">
         <v>2012</v>
       </c>
-      <c r="D375" t="n">
-        <v>71.6</v>
-      </c>
+      <c r="D375"/>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -6400,7 +6394,7 @@
         <v>2013</v>
       </c>
       <c r="D376" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="377">
@@ -6414,7 +6408,7 @@
         <v>2014</v>
       </c>
       <c r="D377" t="n">
-        <v>76.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="378">
@@ -6428,7 +6422,7 @@
         <v>2011</v>
       </c>
       <c r="D378" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="379">
@@ -6442,7 +6436,7 @@
         <v>2012</v>
       </c>
       <c r="D379" t="n">
-        <v>71.9</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="380">
@@ -6456,7 +6450,7 @@
         <v>2013</v>
       </c>
       <c r="D380" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="381">
@@ -6470,7 +6464,7 @@
         <v>2014</v>
       </c>
       <c r="D381" t="n">
-        <v>67.9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="382">
@@ -6484,7 +6478,7 @@
         <v>2011</v>
       </c>
       <c r="D382" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="383">
@@ -6497,9 +6491,7 @@
       <c r="C383" t="n">
         <v>2012</v>
       </c>
-      <c r="D383" t="n">
-        <v>74.9</v>
-      </c>
+      <c r="D383"/>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -6512,7 +6504,7 @@
         <v>2013</v>
       </c>
       <c r="D384" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="385">
@@ -6526,7 +6518,7 @@
         <v>2014</v>
       </c>
       <c r="D385" t="n">
-        <v>82.4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386">
@@ -6540,7 +6532,7 @@
         <v>2011</v>
       </c>
       <c r="D386" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="387">
@@ -6553,9 +6545,7 @@
       <c r="C387" t="n">
         <v>2012</v>
       </c>
-      <c r="D387" t="n">
-        <v>87.9</v>
-      </c>
+      <c r="D387"/>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -6568,7 +6558,7 @@
         <v>2013</v>
       </c>
       <c r="D388" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389">
@@ -6582,7 +6572,7 @@
         <v>2014</v>
       </c>
       <c r="D389" t="n">
-        <v>89</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="390">
@@ -6596,7 +6586,7 @@
         <v>2011</v>
       </c>
       <c r="D390" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="391">
@@ -6610,7 +6600,7 @@
         <v>2012</v>
       </c>
       <c r="D391" t="n">
-        <v>88.1</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="392">
@@ -6624,7 +6614,7 @@
         <v>2013</v>
       </c>
       <c r="D392" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="393">
@@ -6638,7 +6628,7 @@
         <v>2014</v>
       </c>
       <c r="D393" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="394">
@@ -6652,7 +6642,7 @@
         <v>2011</v>
       </c>
       <c r="D394" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="395">
@@ -6665,7 +6655,9 @@
       <c r="C395" t="n">
         <v>2012</v>
       </c>
-      <c r="D395"/>
+      <c r="D395" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -6678,7 +6670,7 @@
         <v>2013</v>
       </c>
       <c r="D396" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="397">
@@ -6692,7 +6684,7 @@
         <v>2014</v>
       </c>
       <c r="D397" t="n">
-        <v>96.4</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="398">
@@ -6706,7 +6698,7 @@
         <v>2011</v>
       </c>
       <c r="D398" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="399">
@@ -6720,7 +6712,7 @@
         <v>2012</v>
       </c>
       <c r="D399" t="n">
-        <v>82.5</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="400">
@@ -6734,7 +6726,7 @@
         <v>2013</v>
       </c>
       <c r="D400" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="401">
@@ -6748,7 +6740,7 @@
         <v>2014</v>
       </c>
       <c r="D401" t="n">
-        <v>89.4</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="402">
@@ -6762,7 +6754,7 @@
         <v>2011</v>
       </c>
       <c r="D402" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="403">
@@ -6776,7 +6768,7 @@
         <v>2012</v>
       </c>
       <c r="D403" t="n">
-        <v>73</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="404">
@@ -6790,7 +6782,7 @@
         <v>2013</v>
       </c>
       <c r="D404" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="405">
@@ -6804,7 +6796,7 @@
         <v>2014</v>
       </c>
       <c r="D405" t="n">
-        <v>72.6</v>
+        <v>76.4</v>
       </c>
     </row>
     <row r="406">
@@ -6818,7 +6810,7 @@
         <v>2011</v>
       </c>
       <c r="D406" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="407">
@@ -6831,9 +6823,7 @@
       <c r="C407" t="n">
         <v>2012</v>
       </c>
-      <c r="D407" t="n">
-        <v>92.9</v>
-      </c>
+      <c r="D407"/>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -6846,7 +6836,7 @@
         <v>2013</v>
       </c>
       <c r="D408" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="409">
@@ -6860,7 +6850,7 @@
         <v>2014</v>
       </c>
       <c r="D409" t="n">
-        <v>87.5</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="410">
@@ -6874,7 +6864,7 @@
         <v>2011</v>
       </c>
       <c r="D410" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411">
@@ -6888,7 +6878,7 @@
         <v>2012</v>
       </c>
       <c r="D411" t="n">
-        <v>70.8</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="412">
@@ -6902,7 +6892,7 @@
         <v>2013</v>
       </c>
       <c r="D412" t="n">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="413">
@@ -6916,7 +6906,7 @@
         <v>2014</v>
       </c>
       <c r="D413" t="n">
-        <v>75</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="414">
@@ -6930,7 +6920,7 @@
         <v>2011</v>
       </c>
       <c r="D414" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="415">
@@ -6944,7 +6934,7 @@
         <v>2012</v>
       </c>
       <c r="D415" t="n">
-        <v>58.3</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="416">
@@ -6958,7 +6948,7 @@
         <v>2013</v>
       </c>
       <c r="D416" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="417">
@@ -6972,7 +6962,7 @@
         <v>2014</v>
       </c>
       <c r="D417" t="n">
-        <v>90</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="418">
@@ -6986,7 +6976,7 @@
         <v>2011</v>
       </c>
       <c r="D418" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419">
@@ -6999,9 +6989,7 @@
       <c r="C419" t="n">
         <v>2012</v>
       </c>
-      <c r="D419" t="n">
-        <v>65.2</v>
-      </c>
+      <c r="D419"/>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -7014,7 +7002,7 @@
         <v>2013</v>
       </c>
       <c r="D420" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="421">
@@ -7028,7 +7016,7 @@
         <v>2014</v>
       </c>
       <c r="D421" t="n">
-        <v>83.1</v>
+        <v>90.6</v>
       </c>
     </row>
     <row r="422">
@@ -7042,7 +7030,7 @@
         <v>2011</v>
       </c>
       <c r="D422" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="423">
@@ -7055,7 +7043,9 @@
       <c r="C423" t="n">
         <v>2012</v>
       </c>
-      <c r="D423"/>
+      <c r="D423" t="n">
+        <v>84.9</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -7068,7 +7058,7 @@
         <v>2013</v>
       </c>
       <c r="D424" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="425">
@@ -7082,7 +7072,7 @@
         <v>2014</v>
       </c>
       <c r="D425" t="n">
-        <v>80</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="426">
@@ -7096,7 +7086,7 @@
         <v>2011</v>
       </c>
       <c r="D426" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="427">
@@ -7109,7 +7099,9 @@
       <c r="C427" t="n">
         <v>2012</v>
       </c>
-      <c r="D427"/>
+      <c r="D427" t="n">
+        <v>80.6</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -7122,7 +7114,7 @@
         <v>2013</v>
       </c>
       <c r="D428" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="429">
@@ -7136,7 +7128,7 @@
         <v>2014</v>
       </c>
       <c r="D429" t="n">
-        <v>56.7</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="430">
@@ -7150,7 +7142,7 @@
         <v>2011</v>
       </c>
       <c r="D430" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="431">
@@ -7163,7 +7155,9 @@
       <c r="C431" t="n">
         <v>2012</v>
       </c>
-      <c r="D431"/>
+      <c r="D431" t="n">
+        <v>96.1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -7176,7 +7170,7 @@
         <v>2013</v>
       </c>
       <c r="D432" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="433">
@@ -7190,7 +7184,7 @@
         <v>2014</v>
       </c>
       <c r="D433" t="n">
-        <v>93.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="434">
@@ -7204,7 +7198,7 @@
         <v>2011</v>
       </c>
       <c r="D434" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435">
@@ -7217,7 +7211,9 @@
       <c r="C435" t="n">
         <v>2012</v>
       </c>
-      <c r="D435"/>
+      <c r="D435" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
@@ -7230,7 +7226,7 @@
         <v>2013</v>
       </c>
       <c r="D436" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="437">
@@ -7244,7 +7240,7 @@
         <v>2014</v>
       </c>
       <c r="D437" t="n">
-        <v>94.7</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="438">
@@ -7258,7 +7254,7 @@
         <v>2011</v>
       </c>
       <c r="D438" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="439">
@@ -7271,7 +7267,9 @@
       <c r="C439" t="n">
         <v>2012</v>
       </c>
-      <c r="D439"/>
+      <c r="D439" t="n">
+        <v>69.9</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -7284,7 +7282,7 @@
         <v>2013</v>
       </c>
       <c r="D440" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="441">
@@ -7298,7 +7296,7 @@
         <v>2014</v>
       </c>
       <c r="D441" t="n">
-        <v>75</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="442">
@@ -7312,7 +7310,7 @@
         <v>2011</v>
       </c>
       <c r="D442" t="n">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="443">
@@ -7325,7 +7323,9 @@
       <c r="C443" t="n">
         <v>2012</v>
       </c>
-      <c r="D443"/>
+      <c r="D443" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -7338,7 +7338,7 @@
         <v>2013</v>
       </c>
       <c r="D444" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="445">
@@ -7352,7 +7352,7 @@
         <v>2014</v>
       </c>
       <c r="D445" t="n">
-        <v>88.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="446">
@@ -7366,7 +7366,7 @@
         <v>2011</v>
       </c>
       <c r="D446" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="447">
@@ -7392,7 +7392,7 @@
         <v>2013</v>
       </c>
       <c r="D448" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449">
@@ -7406,7 +7406,7 @@
         <v>2014</v>
       </c>
       <c r="D449" t="n">
-        <v>90.6</v>
+        <v>77.1</v>
       </c>
     </row>
   </sheetData>
@@ -7428,15 +7428,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7444,1852 +7447,2188 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>92</v>
       </c>
-      <c r="C2" t="n">
-        <v>89.8</v>
-      </c>
       <c r="D2" t="n">
-        <v>99</v>
+        <v>71.6</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>67</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>71.1</v>
-      </c>
-      <c r="D3"/>
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.5</v>
+      </c>
       <c r="E3" t="n">
-        <v>81.6</v>
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>86</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>82.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="n">
-        <v>68.8</v>
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>61</v>
-      </c>
-      <c r="C5" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61</v>
-      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="F5" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>60</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>59.3</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>69</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>76.8</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>57.7</v>
       </c>
       <c r="E7" t="n">
-        <v>83.1</v>
+        <v>66</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>75</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>71.5</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>96.8</v>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>93</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>67</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>69.9</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>89.9</v>
       </c>
       <c r="E9" t="n">
-        <v>70.4</v>
+        <v>92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>90.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>84</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>57.8</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>85</v>
+        <v>95.3</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>93.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>93</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>64.5</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E11" t="n">
         <v>80</v>
       </c>
-      <c r="E11" t="n">
-        <v>76.4</v>
+      <c r="F11" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E12" t="n">
         <v>97</v>
       </c>
-      <c r="C12" t="n">
-        <v>96.1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
+      <c r="F12" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>74</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>65.7</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>78.3</v>
+        <v>77</v>
+      </c>
+      <c r="F13" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>70</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>69.9</v>
+        <v>71</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>79.9</v>
       </c>
       <c r="E14" t="n">
-        <v>68.3</v>
+        <v>84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>71.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>96</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>99</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="F15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>73</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="F16" t="n">
+        <v>80.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>62</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>70.9</v>
+        <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>95.6</v>
       </c>
       <c r="E17" t="n">
-        <v>78.1</v>
+        <v>93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>67</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="n">
-        <v>66</v>
-      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" t="n">
-        <v>80.6</v>
+        <v>78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19"/>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>87.5</v>
+        <v>74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>69</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>58.1</v>
+        <v>85</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>76.1</v>
       </c>
       <c r="E20" t="n">
-        <v>91.7</v>
+        <v>62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>82.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>67</v>
-      </c>
-      <c r="C21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>81</v>
+      </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>92.9</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="F21" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>69</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>61.9</v>
+        <v>99</v>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>89.7</v>
       </c>
       <c r="E22" t="n">
-        <v>81.8</v>
+        <v>95</v>
+      </c>
+      <c r="F22" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>60</v>
-      </c>
-      <c r="C23"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>78</v>
+      </c>
       <c r="D23" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="E23" t="n">
         <v>73</v>
       </c>
-      <c r="E23" t="n">
-        <v>91.3</v>
+      <c r="F23" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>86</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>76.2</v>
+        <v>67</v>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>77.6</v>
       </c>
       <c r="E24" t="n">
-        <v>85.7</v>
+        <v>78</v>
+      </c>
+      <c r="F24" t="n">
+        <v>83.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>60</v>
-      </c>
-      <c r="C25"/>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>75</v>
+      </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>93.9</v>
+        <v>78</v>
+      </c>
+      <c r="F25" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>71</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>79.9</v>
+        <v>69</v>
       </c>
       <c r="D26" t="n">
-        <v>84</v>
+        <v>58.1</v>
       </c>
       <c r="E26" t="n">
-        <v>71.9</v>
+        <v>75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
         <v>67</v>
       </c>
-      <c r="C27" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>78</v>
-      </c>
+      <c r="D27"/>
       <c r="E27" t="n">
-        <v>83.9</v>
+        <v>48</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>65</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>87.9</v>
+        <v>66</v>
       </c>
       <c r="D28" t="n">
-        <v>89</v>
+        <v>85.2</v>
       </c>
       <c r="E28" t="n">
-        <v>86.7</v>
+        <v>80</v>
+      </c>
+      <c r="F28" t="n">
+        <v>70.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>75</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>66.7</v>
+        <v>94</v>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>92.3</v>
       </c>
       <c r="E29" t="n">
-        <v>65.8</v>
+        <v>95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>97.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>66</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>84.4</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
-        <v>83</v>
+        <v>61.9</v>
       </c>
       <c r="E30" t="n">
-        <v>84.1</v>
+        <v>76</v>
+      </c>
+      <c r="F30" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>78</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>88.9</v>
+        <v>77</v>
       </c>
       <c r="D31" t="n">
-        <v>93</v>
+        <v>86.1</v>
       </c>
       <c r="E31" t="n">
-        <v>94.4</v>
+        <v>82</v>
+      </c>
+      <c r="F31" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>96</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>96.8</v>
+        <v>87</v>
       </c>
       <c r="D32" t="n">
-        <v>87</v>
+        <v>80.3</v>
       </c>
       <c r="E32" t="n">
-        <v>59.1</v>
+        <v>82</v>
+      </c>
+      <c r="F32" t="n">
+        <v>75.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>64</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>83.5</v>
+        <v>62</v>
       </c>
       <c r="D33" t="n">
-        <v>89</v>
+        <v>70.8</v>
       </c>
       <c r="E33" t="n">
-        <v>73.3</v>
+        <v>63</v>
+      </c>
+      <c r="F33" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>81</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>75.8</v>
+        <v>65</v>
       </c>
       <c r="D34" t="n">
-        <v>72</v>
+        <v>87.9</v>
       </c>
       <c r="E34" t="n">
-        <v>72.1</v>
+        <v>89</v>
+      </c>
+      <c r="F34" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>93</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>97.8</v>
+        <v>78</v>
       </c>
       <c r="D35" t="n">
-        <v>91</v>
+        <v>58.3</v>
       </c>
       <c r="E35" t="n">
-        <v>96.3</v>
+        <v>88</v>
+      </c>
+      <c r="F35" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>82</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>80.6</v>
+        <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E36" t="n">
-        <v>46.9</v>
+        <v>59</v>
+      </c>
+      <c r="F36" t="n">
+        <v>65.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>60</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>26.7</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
-        <v>67</v>
+        <v>83.6</v>
       </c>
       <c r="E37" t="n">
-        <v>39.8</v>
+        <v>75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>120</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>83.9</v>
+        <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E38" t="n">
-        <v>88.9</v>
+        <v>79</v>
+      </c>
+      <c r="F38" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>81</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>84.4</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>85</v>
+        <v>74.3</v>
       </c>
       <c r="E39" t="n">
-        <v>88.6</v>
+        <v>78</v>
+      </c>
+      <c r="F39" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>85</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>84.9</v>
+        <v>120</v>
       </c>
       <c r="D40" t="n">
-        <v>82</v>
+        <v>83.9</v>
       </c>
       <c r="E40" t="n">
-        <v>89.6</v>
+        <v>66</v>
+      </c>
+      <c r="F40" t="n">
+        <v>88.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>91</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>96.8</v>
+        <v>92</v>
       </c>
       <c r="D41" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="E41" t="n">
-        <v>96.8</v>
+        <v>99</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>95</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>94.8</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>97</v>
+        <v>83.1</v>
       </c>
       <c r="E42" t="n">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="F42" t="n">
+        <v>90.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>52</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>56</v>
-      </c>
-      <c r="D43" t="n">
-        <v>77</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D43"/>
       <c r="E43" t="n">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F43" t="n">
+        <v>91.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>90</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>95.6</v>
+        <v>67</v>
       </c>
       <c r="D44" t="n">
-        <v>93</v>
-      </c>
-      <c r="E44" t="n">
-        <v>100</v>
+        <v>71.1</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="n">
+        <v>81.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>100</v>
+      <c r="B45" t="s">
+        <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D45" t="n">
-        <v>74</v>
+        <v>84.4</v>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>83</v>
+      </c>
+      <c r="F45" t="n">
+        <v>84.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>75</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>82</v>
-      </c>
-      <c r="D46" t="n">
-        <v>78</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D46"/>
       <c r="E46" t="n">
-        <v>93.8</v>
+        <v>93</v>
+      </c>
+      <c r="F46" t="n">
+        <v>96.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>80</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>83.1</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>76</v>
+        <v>82.5</v>
       </c>
       <c r="E47" t="n">
-        <v>90.5</v>
+        <v>79</v>
+      </c>
+      <c r="F47" t="n">
+        <v>89.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>94</v>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>94.9</v>
+        <v>78</v>
       </c>
       <c r="D48" t="n">
-        <v>99</v>
+        <v>88.9</v>
       </c>
       <c r="E48" t="n">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F48" t="n">
+        <v>94.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>74</v>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>84.2</v>
+        <v>89</v>
       </c>
       <c r="D49" t="n">
-        <v>88</v>
+        <v>93.6</v>
       </c>
       <c r="E49" t="n">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="F49" t="n">
+        <v>95.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>85</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>76.1</v>
+        <v>96</v>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>96.8</v>
       </c>
       <c r="E50" t="n">
-        <v>82.6</v>
+        <v>87</v>
+      </c>
+      <c r="F50" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>66</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>85.2</v>
+        <v>74</v>
       </c>
       <c r="D51" t="n">
-        <v>80</v>
+        <v>65.7</v>
       </c>
       <c r="E51" t="n">
-        <v>70.6</v>
+        <v>63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>93</v>
-      </c>
-      <c r="C52"/>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>86</v>
+      </c>
       <c r="D52" t="n">
-        <v>73</v>
+        <v>86.2</v>
       </c>
       <c r="E52" t="n">
-        <v>84.6</v>
+        <v>86</v>
+      </c>
+      <c r="F52" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>78</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>157.1</v>
+        <v>86</v>
       </c>
       <c r="D53" t="n">
-        <v>95</v>
+        <v>82.6</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="F53" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>65</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54" t="n">
-        <v>77</v>
-      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>93</v>
+      </c>
+      <c r="D54"/>
       <c r="E54" t="n">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="F54" t="n">
+        <v>84.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>71</v>
-      </c>
-      <c r="C55"/>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64</v>
+      </c>
       <c r="D55" t="n">
-        <v>86</v>
+        <v>65.2</v>
       </c>
       <c r="E55" t="n">
-        <v>84.8</v>
+        <v>74</v>
+      </c>
+      <c r="F55" t="n">
+        <v>83.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>64</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>65</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D56"/>
       <c r="E56" t="n">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="F56" t="n">
+        <v>56.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>82</v>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>93.2</v>
+        <v>75</v>
       </c>
       <c r="D57" t="n">
-        <v>86</v>
+        <v>71.6</v>
       </c>
       <c r="E57" t="n">
-        <v>92.9</v>
+        <v>78</v>
+      </c>
+      <c r="F57" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>107</v>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>65.5</v>
+        <v>108</v>
       </c>
       <c r="D58" t="n">
-        <v>79</v>
+        <v>75.7</v>
       </c>
       <c r="E58" t="n">
-        <v>78.4</v>
+        <v>80</v>
+      </c>
+      <c r="F58" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>96</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>95.3</v>
+        <v>73</v>
       </c>
       <c r="D59" t="n">
-        <v>94</v>
+        <v>64.4</v>
       </c>
       <c r="E59" t="n">
-        <v>93.2</v>
+        <v>77</v>
+      </c>
+      <c r="F59" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>79</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>80</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D60"/>
       <c r="E60" t="n">
-        <v>46.8</v>
+        <v>88</v>
+      </c>
+      <c r="F60" t="n">
+        <v>94.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>77</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>86.1</v>
+        <v>45</v>
       </c>
       <c r="D61" t="n">
-        <v>82</v>
+        <v>54.8</v>
       </c>
       <c r="E61" t="n">
-        <v>93.8</v>
+        <v>54</v>
+      </c>
+      <c r="F61" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>108</v>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>75.7</v>
+        <v>64</v>
       </c>
       <c r="D62" t="n">
-        <v>80</v>
+        <v>83.5</v>
       </c>
       <c r="E62" t="n">
-        <v>74.5</v>
+        <v>89</v>
+      </c>
+      <c r="F62" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>45</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>54.8</v>
+        <v>78</v>
       </c>
       <c r="D63" t="n">
-        <v>54</v>
+        <v>157.1</v>
       </c>
       <c r="E63" t="n">
-        <v>61.9</v>
+        <v>95</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
         <v>86</v>
       </c>
-      <c r="C64" t="n">
-        <v>84.6</v>
-      </c>
       <c r="D64" t="n">
-        <v>88</v>
+        <v>76.2</v>
       </c>
       <c r="E64" t="n">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="F64" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>61</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>64.4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D65"/>
       <c r="E65" t="n">
-        <v>65.2</v>
+        <v>87</v>
+      </c>
+      <c r="F65" t="n">
+        <v>93.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>72</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>74.1</v>
+        <v>73</v>
       </c>
       <c r="D66" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E66" t="n">
-        <v>69.6</v>
+        <v>79</v>
+      </c>
+      <c r="F66" t="n">
+        <v>72.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>77</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>72.4</v>
+        <v>108</v>
       </c>
       <c r="D67" t="n">
-        <v>79</v>
+        <v>70.8</v>
       </c>
       <c r="E67" t="n">
-        <v>61.8</v>
+        <v>74</v>
+      </c>
+      <c r="F67" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>81</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>81.7</v>
+        <v>86</v>
       </c>
       <c r="D68" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="E68" t="n">
         <v>88</v>
       </c>
-      <c r="E68" t="n">
-        <v>76.9</v>
+      <c r="F68" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>84</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>84</v>
-      </c>
-      <c r="D69" t="n">
-        <v>92</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D69"/>
       <c r="E69" t="n">
-        <v>47.7</v>
+        <v>77</v>
+      </c>
+      <c r="F69" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>122</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>75.7</v>
+        <v>61</v>
       </c>
       <c r="D70" t="n">
-        <v>79</v>
+        <v>61.4</v>
       </c>
       <c r="E70" t="n">
-        <v>66.7</v>
+        <v>61</v>
+      </c>
+      <c r="F70" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>92</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="D71" t="n">
-        <v>55</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D71"/>
       <c r="E71" t="n">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="F71" t="n">
+        <v>93.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>87</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D72" t="n">
-        <v>84</v>
+        <v>97.8</v>
       </c>
       <c r="E72" t="n">
-        <v>84.8</v>
+        <v>99</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>85</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>89.9</v>
+        <v>94</v>
       </c>
       <c r="D73" t="n">
-        <v>92</v>
+        <v>94.9</v>
       </c>
       <c r="E73" t="n">
-        <v>90.2</v>
+        <v>99</v>
+      </c>
+      <c r="F73" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>94</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>95</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D74"/>
       <c r="E74" t="n">
-        <v>97.8</v>
+        <v>69</v>
+      </c>
+      <c r="F74" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>82</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>83.6</v>
+        <v>60</v>
       </c>
       <c r="D75" t="n">
-        <v>75</v>
+        <v>59.3</v>
       </c>
       <c r="E75" t="n">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="F75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>73</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>64.4</v>
+        <v>71</v>
       </c>
       <c r="D76" t="n">
-        <v>77</v>
+        <v>71.9</v>
       </c>
       <c r="E76" t="n">
-        <v>44.8</v>
+        <v>65</v>
+      </c>
+      <c r="F76" t="n">
+        <v>67.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>79</v>
-      </c>
-      <c r="C77"/>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>81</v>
+      </c>
       <c r="D77" t="n">
-        <v>69</v>
+        <v>84.4</v>
       </c>
       <c r="E77" t="n">
-        <v>69.2</v>
+        <v>85</v>
+      </c>
+      <c r="F77" t="n">
+        <v>88.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>96</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>94.5</v>
+        <v>81</v>
       </c>
       <c r="D78" t="n">
-        <v>94</v>
+        <v>75.8</v>
       </c>
       <c r="E78" t="n">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="F78" t="n">
+        <v>72.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>84</v>
-      </c>
-      <c r="C79"/>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>59</v>
+      </c>
       <c r="D79" t="n">
-        <v>85</v>
+        <v>74.9</v>
       </c>
       <c r="E79" t="n">
-        <v>49.1</v>
+        <v>72</v>
+      </c>
+      <c r="F79" t="n">
+        <v>82.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80" t="n">
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
         <v>78</v>
       </c>
+      <c r="D80"/>
       <c r="E80" t="n">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="F80" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>81</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>57.7</v>
+        <v>73</v>
       </c>
       <c r="D81" t="n">
-        <v>66</v>
+        <v>62.8</v>
       </c>
       <c r="E81" t="n">
-        <v>62.5</v>
+        <v>72</v>
+      </c>
+      <c r="F81" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>96</v>
-      </c>
-      <c r="C82"/>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>61</v>
+      </c>
       <c r="D82" t="n">
-        <v>88</v>
+        <v>64.4</v>
       </c>
       <c r="E82" t="n">
-        <v>94.1</v>
+        <v>80</v>
+      </c>
+      <c r="F82" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>108</v>
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>70.8</v>
+        <v>72</v>
       </c>
       <c r="D83" t="n">
-        <v>74</v>
+        <v>74.1</v>
       </c>
       <c r="E83" t="n">
-        <v>86.7</v>
+        <v>78</v>
+      </c>
+      <c r="F83" t="n">
+        <v>69.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>61</v>
-      </c>
-      <c r="C84"/>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>69</v>
+      </c>
       <c r="D84" t="n">
-        <v>65</v>
+        <v>76.8</v>
       </c>
       <c r="E84" t="n">
-        <v>63.6</v>
+        <v>71</v>
+      </c>
+      <c r="F84" t="n">
+        <v>83.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>85</v>
-      </c>
-      <c r="C85"/>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>75</v>
+      </c>
       <c r="D85" t="n">
-        <v>92</v>
+        <v>71.5</v>
       </c>
       <c r="E85" t="n">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="F85" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>86</v>
-      </c>
-      <c r="C86"/>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>67</v>
+      </c>
       <c r="D86" t="n">
-        <v>75</v>
+        <v>69.9</v>
       </c>
       <c r="E86" t="n">
-        <v>79.3</v>
+        <v>64</v>
+      </c>
+      <c r="F86" t="n">
+        <v>70.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>77</v>
-      </c>
-      <c r="C87"/>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>81</v>
+      </c>
       <c r="D87" t="n">
-        <v>73</v>
+        <v>81.7</v>
       </c>
       <c r="E87" t="n">
-        <v>77.1</v>
+        <v>88</v>
+      </c>
+      <c r="F87" t="n">
+        <v>76.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>99</v>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>89.7</v>
+        <v>62</v>
       </c>
       <c r="D88" t="n">
-        <v>95</v>
+        <v>70.9</v>
       </c>
       <c r="E88" t="n">
-        <v>82.1</v>
+        <v>79</v>
+      </c>
+      <c r="F88" t="n">
+        <v>78.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>78</v>
+      <c r="B89" t="s">
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>31.8</v>
+        <v>84</v>
       </c>
       <c r="D89" t="n">
-        <v>73</v>
+        <v>57.8</v>
       </c>
       <c r="E89" t="n">
-        <v>69.2</v>
+        <v>85</v>
+      </c>
+      <c r="F89" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>87</v>
+      <c r="B90" t="s">
+        <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D90"/>
       <c r="E90" t="n">
-        <v>75.9</v>
+        <v>86</v>
+      </c>
+      <c r="F90" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>70</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D91" t="n">
-        <v>79</v>
+        <v>84.2</v>
       </c>
       <c r="E91" t="n">
-        <v>85.5</v>
+        <v>88</v>
+      </c>
+      <c r="F91" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>75</v>
+      <c r="B92" t="s">
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D92" t="n">
-        <v>78</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D92"/>
       <c r="E92" t="n">
-        <v>87.2</v>
+        <v>65</v>
+      </c>
+      <c r="F92" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>89</v>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>93.6</v>
+        <v>77</v>
       </c>
       <c r="D93" t="n">
-        <v>93</v>
+        <v>72.4</v>
       </c>
       <c r="E93" t="n">
-        <v>95.9</v>
+        <v>79</v>
+      </c>
+      <c r="F93" t="n">
+        <v>61.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>86</v>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>86.2</v>
+        <v>64</v>
       </c>
       <c r="D94" t="n">
-        <v>86</v>
+        <v>41.7</v>
       </c>
       <c r="E94" t="n">
-        <v>85.7</v>
+        <v>65</v>
+      </c>
+      <c r="F94" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>80</v>
+      </c>
+      <c r="F95" t="n">
         <v>75</v>
-      </c>
-      <c r="C95" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="D95" t="n">
-        <v>78</v>
-      </c>
-      <c r="E95" t="n">
-        <v>76.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>71</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>71.9</v>
+        <v>89</v>
       </c>
       <c r="D96" t="n">
-        <v>65</v>
+        <v>87.9</v>
       </c>
       <c r="E96" t="n">
-        <v>67.9</v>
+        <v>88</v>
+      </c>
+      <c r="F96" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>59</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="D97" t="n">
-        <v>72</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D97"/>
       <c r="E97" t="n">
-        <v>82.4</v>
+        <v>92</v>
+      </c>
+      <c r="F97" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>89</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>87.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D98"/>
       <c r="E98" t="n">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="F98" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>88</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>88.1</v>
+        <v>96</v>
       </c>
       <c r="D99" t="n">
-        <v>85</v>
+        <v>94.5</v>
       </c>
       <c r="E99" t="n">
-        <v>90.2</v>
+        <v>94</v>
+      </c>
+      <c r="F99" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>87</v>
-      </c>
-      <c r="C100"/>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>84</v>
+      </c>
       <c r="D100" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E100" t="n">
-        <v>96.4</v>
+        <v>92</v>
+      </c>
+      <c r="F100" t="n">
+        <v>47.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>70</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>82.5</v>
+        <v>93</v>
       </c>
       <c r="D101" t="n">
-        <v>79</v>
+        <v>97.8</v>
       </c>
       <c r="E101" t="n">
-        <v>89.4</v>
+        <v>91</v>
+      </c>
+      <c r="F101" t="n">
+        <v>96.3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>73</v>
+      <c r="B102" t="s">
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D102" t="n">
-        <v>79</v>
+        <v>64.5</v>
       </c>
       <c r="E102" t="n">
-        <v>72.6</v>
+        <v>80</v>
+      </c>
+      <c r="F102" t="n">
+        <v>76.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>81</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="D103" t="n">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D103"/>
       <c r="E103" t="n">
-        <v>87.5</v>
+        <v>84</v>
+      </c>
+      <c r="F103" t="n">
+        <v>88.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>62</v>
+      <c r="B104" t="s">
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>70.8</v>
+        <v>88</v>
       </c>
       <c r="D104" t="n">
-        <v>63</v>
+        <v>88.1</v>
       </c>
       <c r="E104" t="n">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="F104" t="n">
+        <v>90.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>78</v>
+      <c r="B105" t="s">
+        <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v>58.3</v>
+        <v>82</v>
       </c>
       <c r="D105" t="n">
-        <v>88</v>
+        <v>93.2</v>
       </c>
       <c r="E105" t="n">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="F105" t="n">
+        <v>92.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>64</v>
+      <c r="B106" t="s">
+        <v>213</v>
       </c>
       <c r="C106" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>74</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D106"/>
       <c r="E106" t="n">
-        <v>83.1</v>
+        <v>83</v>
+      </c>
+      <c r="F106" t="n">
+        <v>90.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>78</v>
-      </c>
-      <c r="C107"/>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>85</v>
+      </c>
       <c r="D107" t="n">
-        <v>93</v>
+        <v>84.9</v>
       </c>
       <c r="E107" t="n">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="F107" t="n">
+        <v>89.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>71</v>
-      </c>
-      <c r="C108"/>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>82</v>
+      </c>
       <c r="D108" t="n">
-        <v>79</v>
+        <v>80.6</v>
       </c>
       <c r="E108" t="n">
-        <v>56.7</v>
+        <v>67</v>
+      </c>
+      <c r="F108" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>73</v>
-      </c>
-      <c r="C109"/>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>97</v>
+      </c>
       <c r="D109" t="n">
-        <v>87</v>
+        <v>96.1</v>
       </c>
       <c r="E109" t="n">
-        <v>93.5</v>
+        <v>98</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>78</v>
-      </c>
-      <c r="C110"/>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>60</v>
+      </c>
       <c r="D110" t="n">
-        <v>70</v>
+        <v>26.7</v>
       </c>
       <c r="E110" t="n">
-        <v>94.7</v>
+        <v>67</v>
+      </c>
+      <c r="F110" t="n">
+        <v>39.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>99</v>
-      </c>
-      <c r="C111"/>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>70</v>
+      </c>
       <c r="D111" t="n">
-        <v>80</v>
+        <v>69.9</v>
       </c>
       <c r="E111" t="n">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="F111" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>78</v>
-      </c>
-      <c r="C112"/>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>122</v>
+      </c>
       <c r="D112" t="n">
-        <v>84</v>
+        <v>75.7</v>
       </c>
       <c r="E112" t="n">
-        <v>88.9</v>
+        <v>79</v>
+      </c>
+      <c r="F112" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>78</v>
-      </c>
-      <c r="C113"/>
-      <c r="D113" t="n">
-        <v>83</v>
-      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>77</v>
+      </c>
+      <c r="D113"/>
       <c r="E113" t="n">
-        <v>90.6</v>
+        <v>73</v>
+      </c>
+      <c r="F113" t="n">
+        <v>77.1</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-tb-success/uganda-tb-success.xlsx
+++ b/user-data/uganda-tb-success/uganda-tb-success.xlsx
@@ -727,7 +727,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 21</t>
+    <t xml:space="preserve">Source: 22</t>
   </si>
   <si>
     <t xml:space="preserve"/>
